--- a/en/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/en/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7544BB-9FD0-4FD1-9075-C2DE2133F1DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BFCD3-25A8-4EAE-8A8C-6B1EFEBA45AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3120" windowWidth="27225" windowHeight="7905" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" state="hidden" r:id="rId1"/>
@@ -43,116 +43,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{B1981259-EE83-4D9E-B847-E4693DC2A35C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{03A308BF-0B22-4014-988C-02F818B34E9F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="V25" authorId="0" shapeId="0" xr:uid="{CEDD3F3D-EE43-495C-9359-6EF5ECA9999A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
   <si>
@@ -632,7 +522,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -779,21 +669,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1425,6 +1300,87 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1536,86 +1492,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1653,59 +1582,47 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1743,82 +1660,148 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1827,27 +1810,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1857,24 +1819,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1884,15 +1828,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1909,15 +1844,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1970,92 +1896,41 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3306,8 +3181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5876925" y="4927600"/>
-          <a:ext cx="603250" cy="342900"/>
+          <a:off x="5943600" y="5124450"/>
+          <a:ext cx="609600" cy="361950"/>
           <a:chOff x="454" y="733"/>
           <a:chExt cx="64" cy="39"/>
         </a:xfrm>
@@ -3763,8 +3638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="4489450"/>
-          <a:ext cx="676275" cy="352425"/>
+          <a:off x="7686675" y="4667250"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -3988,8 +3863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7600950" y="4946650"/>
-          <a:ext cx="676275" cy="352425"/>
+          <a:off x="7686675" y="5143500"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4392,8 +4267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4219575" y="4060825"/>
-          <a:ext cx="142875" cy="155575"/>
+          <a:off x="4267200" y="4219575"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -5750,42 +5625,42 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -5796,7 +5671,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -5805,7 +5680,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -5817,7 +5692,7 @@
       <c r="K25" s="157"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -5826,7 +5701,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5835,7 +5710,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -5844,7 +5719,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -5852,7 +5727,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="5"/>
@@ -5861,7 +5736,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
@@ -5870,7 +5745,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -5879,7 +5754,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -5891,7 +5766,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -5906,515 +5781,515 @@
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="30"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="29"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="31"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="32"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6438,170 +6313,170 @@
       <selection activeCell="J8" sqref="J8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="168" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="177" t="s">
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="186" t="s">
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="174" t="s">
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="215"/>
+      <c r="AA1" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="203"/>
+      <c r="AC1" s="185" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161">
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="188">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="163"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
       <c r="AM1" s="11"/>
       <c r="AN1" s="12"/>
     </row>
-    <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="174" t="s">
+    <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="168" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="180"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="174" t="s">
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="171" t="str">
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="161" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="188" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
     </row>
-    <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="174" t="s">
+    <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="168" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="184"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="163"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="188"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="190"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="15" t="s">
         <v>35</v>
       </c>
@@ -6615,7 +6490,7 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:40" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="15"/>
       <c r="AA6" s="23"/>
       <c r="AB6" s="23"/>
@@ -6627,1190 +6502,1034 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="192"/>
+      <c r="D7" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="164" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="167" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="164" t="s">
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="164" t="s">
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="165"/>
-    </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="192"/>
+    </row>
+    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209">
+      <c r="C8" s="172"/>
+      <c r="D8" s="173">
         <v>43718</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212" t="s">
+      <c r="E8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="213"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="219"/>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="217" t="s">
+      <c r="H8" s="177"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="183"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183"/>
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="183"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="183"/>
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="215"/>
-      <c r="AH8" s="215"/>
-      <c r="AI8" s="216"/>
-    </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
+    </row>
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="205"/>
-      <c r="T9" s="205"/>
-      <c r="U9" s="205"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="205"/>
-      <c r="X9" s="205"/>
-      <c r="Y9" s="205"/>
-      <c r="Z9" s="205"/>
-      <c r="AA9" s="205"/>
-      <c r="AB9" s="205"/>
-      <c r="AC9" s="205"/>
-      <c r="AD9" s="205"/>
-      <c r="AE9" s="206"/>
-      <c r="AF9" s="201"/>
-      <c r="AG9" s="202"/>
-      <c r="AH9" s="202"/>
-      <c r="AI9" s="203"/>
-    </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="168"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="166"/>
+    </row>
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="205"/>
-      <c r="S10" s="205"/>
-      <c r="T10" s="205"/>
-      <c r="U10" s="205"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="205"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="205"/>
-      <c r="Z10" s="205"/>
-      <c r="AA10" s="205"/>
-      <c r="AB10" s="205"/>
-      <c r="AC10" s="205"/>
-      <c r="AD10" s="205"/>
-      <c r="AE10" s="206"/>
-      <c r="AF10" s="201"/>
-      <c r="AG10" s="202"/>
-      <c r="AH10" s="202"/>
-      <c r="AI10" s="203"/>
-    </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
+      <c r="AC10" s="168"/>
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="165"/>
+      <c r="AH10" s="165"/>
+      <c r="AI10" s="166"/>
+    </row>
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="202"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
-      <c r="T11" s="205"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="205"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="205"/>
-      <c r="Z11" s="205"/>
-      <c r="AA11" s="205"/>
-      <c r="AB11" s="205"/>
-      <c r="AC11" s="205"/>
-      <c r="AD11" s="205"/>
-      <c r="AE11" s="206"/>
-      <c r="AF11" s="201"/>
-      <c r="AG11" s="202"/>
-      <c r="AH11" s="202"/>
-      <c r="AI11" s="203"/>
-    </row>
-    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="165"/>
+      <c r="AH11" s="165"/>
+      <c r="AI11" s="166"/>
+    </row>
+    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="202"/>
-      <c r="O12" s="202"/>
-      <c r="P12" s="203"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
-      <c r="T12" s="205"/>
-      <c r="U12" s="205"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="205"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="205"/>
-      <c r="Z12" s="205"/>
-      <c r="AA12" s="205"/>
-      <c r="AB12" s="205"/>
-      <c r="AC12" s="205"/>
-      <c r="AD12" s="205"/>
-      <c r="AE12" s="206"/>
-      <c r="AF12" s="201"/>
-      <c r="AG12" s="202"/>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="203"/>
-    </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="166"/>
+    </row>
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="196"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="205"/>
-      <c r="S13" s="205"/>
-      <c r="T13" s="205"/>
-      <c r="U13" s="205"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="205"/>
-      <c r="X13" s="205"/>
-      <c r="Y13" s="205"/>
-      <c r="Z13" s="205"/>
-      <c r="AA13" s="205"/>
-      <c r="AB13" s="205"/>
-      <c r="AC13" s="205"/>
-      <c r="AD13" s="205"/>
-      <c r="AE13" s="206"/>
-      <c r="AF13" s="201"/>
-      <c r="AG13" s="202"/>
-      <c r="AH13" s="202"/>
-      <c r="AI13" s="203"/>
-    </row>
-    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="166"/>
+    </row>
+    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="205"/>
-      <c r="S14" s="205"/>
-      <c r="T14" s="205"/>
-      <c r="U14" s="205"/>
-      <c r="V14" s="205"/>
-      <c r="W14" s="205"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="205"/>
-      <c r="Z14" s="205"/>
-      <c r="AA14" s="205"/>
-      <c r="AB14" s="205"/>
-      <c r="AC14" s="205"/>
-      <c r="AD14" s="205"/>
-      <c r="AE14" s="206"/>
-      <c r="AF14" s="201"/>
-      <c r="AG14" s="202"/>
-      <c r="AH14" s="202"/>
-      <c r="AI14" s="203"/>
-    </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="168"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="166"/>
+    </row>
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="202"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="205"/>
-      <c r="T15" s="205"/>
-      <c r="U15" s="205"/>
-      <c r="V15" s="205"/>
-      <c r="W15" s="205"/>
-      <c r="X15" s="205"/>
-      <c r="Y15" s="205"/>
-      <c r="Z15" s="205"/>
-      <c r="AA15" s="205"/>
-      <c r="AB15" s="205"/>
-      <c r="AC15" s="205"/>
-      <c r="AD15" s="205"/>
-      <c r="AE15" s="206"/>
-      <c r="AF15" s="201"/>
-      <c r="AG15" s="202"/>
-      <c r="AH15" s="202"/>
-      <c r="AI15" s="203"/>
-    </row>
-    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="166"/>
+    </row>
+    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="202"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="202"/>
-      <c r="O16" s="202"/>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="205"/>
-      <c r="U16" s="205"/>
-      <c r="V16" s="205"/>
-      <c r="W16" s="205"/>
-      <c r="X16" s="205"/>
-      <c r="Y16" s="205"/>
-      <c r="Z16" s="205"/>
-      <c r="AA16" s="205"/>
-      <c r="AB16" s="205"/>
-      <c r="AC16" s="205"/>
-      <c r="AD16" s="205"/>
-      <c r="AE16" s="206"/>
-      <c r="AF16" s="201"/>
-      <c r="AG16" s="202"/>
-      <c r="AH16" s="202"/>
-      <c r="AI16" s="203"/>
-    </row>
-    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
+      <c r="AI16" s="166"/>
+    </row>
+    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="202"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="205"/>
-      <c r="S17" s="205"/>
-      <c r="T17" s="205"/>
-      <c r="U17" s="205"/>
-      <c r="V17" s="205"/>
-      <c r="W17" s="205"/>
-      <c r="X17" s="205"/>
-      <c r="Y17" s="205"/>
-      <c r="Z17" s="205"/>
-      <c r="AA17" s="205"/>
-      <c r="AB17" s="205"/>
-      <c r="AC17" s="205"/>
-      <c r="AD17" s="205"/>
-      <c r="AE17" s="206"/>
-      <c r="AF17" s="201"/>
-      <c r="AG17" s="202"/>
-      <c r="AH17" s="202"/>
-      <c r="AI17" s="203"/>
-    </row>
-    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="165"/>
+      <c r="AH17" s="165"/>
+      <c r="AI17" s="166"/>
+    </row>
+    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="202"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="202"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="205"/>
-      <c r="S18" s="205"/>
-      <c r="T18" s="205"/>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="205"/>
-      <c r="AA18" s="205"/>
-      <c r="AB18" s="205"/>
-      <c r="AC18" s="205"/>
-      <c r="AD18" s="205"/>
-      <c r="AE18" s="206"/>
-      <c r="AF18" s="201"/>
-      <c r="AG18" s="202"/>
-      <c r="AH18" s="202"/>
-      <c r="AI18" s="203"/>
-    </row>
-    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="166"/>
+    </row>
+    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="205"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="205"/>
-      <c r="Z19" s="205"/>
-      <c r="AA19" s="205"/>
-      <c r="AB19" s="205"/>
-      <c r="AC19" s="205"/>
-      <c r="AD19" s="205"/>
-      <c r="AE19" s="206"/>
-      <c r="AF19" s="201"/>
-      <c r="AG19" s="202"/>
-      <c r="AH19" s="202"/>
-      <c r="AI19" s="203"/>
-    </row>
-    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="165"/>
+      <c r="AH19" s="165"/>
+      <c r="AI19" s="166"/>
+    </row>
+    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="202"/>
-      <c r="O20" s="202"/>
-      <c r="P20" s="203"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
-      <c r="W20" s="205"/>
-      <c r="X20" s="205"/>
-      <c r="Y20" s="205"/>
-      <c r="Z20" s="205"/>
-      <c r="AA20" s="205"/>
-      <c r="AB20" s="205"/>
-      <c r="AC20" s="205"/>
-      <c r="AD20" s="205"/>
-      <c r="AE20" s="206"/>
-      <c r="AF20" s="201"/>
-      <c r="AG20" s="202"/>
-      <c r="AH20" s="202"/>
-      <c r="AI20" s="203"/>
-    </row>
-    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="165"/>
+      <c r="AH20" s="165"/>
+      <c r="AI20" s="166"/>
+    </row>
+    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="202"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="202"/>
-      <c r="O21" s="202"/>
-      <c r="P21" s="203"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="205"/>
-      <c r="U21" s="205"/>
-      <c r="V21" s="205"/>
-      <c r="W21" s="205"/>
-      <c r="X21" s="205"/>
-      <c r="Y21" s="205"/>
-      <c r="Z21" s="205"/>
-      <c r="AA21" s="205"/>
-      <c r="AB21" s="205"/>
-      <c r="AC21" s="205"/>
-      <c r="AD21" s="205"/>
-      <c r="AE21" s="206"/>
-      <c r="AF21" s="201"/>
-      <c r="AG21" s="202"/>
-      <c r="AH21" s="202"/>
-      <c r="AI21" s="203"/>
-    </row>
-    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="165"/>
+      <c r="AH21" s="165"/>
+      <c r="AI21" s="166"/>
+    </row>
+    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="202"/>
-      <c r="P22" s="203"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="205"/>
-      <c r="T22" s="205"/>
-      <c r="U22" s="205"/>
-      <c r="V22" s="205"/>
-      <c r="W22" s="205"/>
-      <c r="X22" s="205"/>
-      <c r="Y22" s="205"/>
-      <c r="Z22" s="205"/>
-      <c r="AA22" s="205"/>
-      <c r="AB22" s="205"/>
-      <c r="AC22" s="205"/>
-      <c r="AD22" s="205"/>
-      <c r="AE22" s="206"/>
-      <c r="AF22" s="201"/>
-      <c r="AG22" s="202"/>
-      <c r="AH22" s="202"/>
-      <c r="AI22" s="203"/>
-    </row>
-    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="158"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="165"/>
+      <c r="AH22" s="165"/>
+      <c r="AI22" s="166"/>
+    </row>
+    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="203"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="205"/>
-      <c r="S23" s="205"/>
-      <c r="T23" s="205"/>
-      <c r="U23" s="205"/>
-      <c r="V23" s="205"/>
-      <c r="W23" s="205"/>
-      <c r="X23" s="205"/>
-      <c r="Y23" s="205"/>
-      <c r="Z23" s="205"/>
-      <c r="AA23" s="205"/>
-      <c r="AB23" s="205"/>
-      <c r="AC23" s="205"/>
-      <c r="AD23" s="205"/>
-      <c r="AE23" s="206"/>
-      <c r="AF23" s="201"/>
-      <c r="AG23" s="202"/>
-      <c r="AH23" s="202"/>
-      <c r="AI23" s="203"/>
-    </row>
-    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="158"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="166"/>
+    </row>
+    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204"/>
-      <c r="R24" s="205"/>
-      <c r="S24" s="205"/>
-      <c r="T24" s="205"/>
-      <c r="U24" s="205"/>
-      <c r="V24" s="205"/>
-      <c r="W24" s="205"/>
-      <c r="X24" s="205"/>
-      <c r="Y24" s="205"/>
-      <c r="Z24" s="205"/>
-      <c r="AA24" s="205"/>
-      <c r="AB24" s="205"/>
-      <c r="AC24" s="205"/>
-      <c r="AD24" s="205"/>
-      <c r="AE24" s="206"/>
-      <c r="AF24" s="201"/>
-      <c r="AG24" s="202"/>
-      <c r="AH24" s="202"/>
-      <c r="AI24" s="203"/>
-    </row>
-    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="158"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="166"/>
+    </row>
+    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="205"/>
-      <c r="S25" s="205"/>
-      <c r="T25" s="205"/>
-      <c r="U25" s="205"/>
-      <c r="V25" s="205"/>
-      <c r="W25" s="205"/>
-      <c r="X25" s="205"/>
-      <c r="Y25" s="205"/>
-      <c r="Z25" s="205"/>
-      <c r="AA25" s="205"/>
-      <c r="AB25" s="205"/>
-      <c r="AC25" s="205"/>
-      <c r="AD25" s="205"/>
-      <c r="AE25" s="206"/>
-      <c r="AF25" s="201"/>
-      <c r="AG25" s="202"/>
-      <c r="AH25" s="202"/>
-      <c r="AI25" s="203"/>
-    </row>
-    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="158"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="166"/>
+    </row>
+    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="202"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="202"/>
-      <c r="O26" s="202"/>
-      <c r="P26" s="203"/>
-      <c r="Q26" s="204"/>
-      <c r="R26" s="205"/>
-      <c r="S26" s="205"/>
-      <c r="T26" s="205"/>
-      <c r="U26" s="205"/>
-      <c r="V26" s="205"/>
-      <c r="W26" s="205"/>
-      <c r="X26" s="205"/>
-      <c r="Y26" s="205"/>
-      <c r="Z26" s="205"/>
-      <c r="AA26" s="205"/>
-      <c r="AB26" s="205"/>
-      <c r="AC26" s="205"/>
-      <c r="AD26" s="205"/>
-      <c r="AE26" s="206"/>
-      <c r="AF26" s="201"/>
-      <c r="AG26" s="202"/>
-      <c r="AH26" s="202"/>
-      <c r="AI26" s="203"/>
-    </row>
-    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="158"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="166"/>
+    </row>
+    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="202"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="202"/>
-      <c r="O27" s="202"/>
-      <c r="P27" s="203"/>
-      <c r="Q27" s="204"/>
-      <c r="R27" s="205"/>
-      <c r="S27" s="205"/>
-      <c r="T27" s="205"/>
-      <c r="U27" s="205"/>
-      <c r="V27" s="205"/>
-      <c r="W27" s="205"/>
-      <c r="X27" s="205"/>
-      <c r="Y27" s="205"/>
-      <c r="Z27" s="205"/>
-      <c r="AA27" s="205"/>
-      <c r="AB27" s="205"/>
-      <c r="AC27" s="205"/>
-      <c r="AD27" s="205"/>
-      <c r="AE27" s="206"/>
-      <c r="AF27" s="201"/>
-      <c r="AG27" s="202"/>
-      <c r="AH27" s="202"/>
-      <c r="AI27" s="203"/>
-    </row>
-    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="166"/>
+    </row>
+    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="202"/>
-      <c r="P28" s="203"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="205"/>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="205"/>
-      <c r="Y28" s="205"/>
-      <c r="Z28" s="205"/>
-      <c r="AA28" s="205"/>
-      <c r="AB28" s="205"/>
-      <c r="AC28" s="205"/>
-      <c r="AD28" s="205"/>
-      <c r="AE28" s="206"/>
-      <c r="AF28" s="201"/>
-      <c r="AG28" s="202"/>
-      <c r="AH28" s="202"/>
-      <c r="AI28" s="203"/>
-    </row>
-    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="166"/>
+    </row>
+    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="195"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="202"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
-      <c r="O29" s="202"/>
-      <c r="P29" s="203"/>
-      <c r="Q29" s="204"/>
-      <c r="R29" s="205"/>
-      <c r="S29" s="205"/>
-      <c r="T29" s="205"/>
-      <c r="U29" s="205"/>
-      <c r="V29" s="205"/>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
-      <c r="Y29" s="205"/>
-      <c r="Z29" s="205"/>
-      <c r="AA29" s="205"/>
-      <c r="AB29" s="205"/>
-      <c r="AC29" s="205"/>
-      <c r="AD29" s="205"/>
-      <c r="AE29" s="206"/>
-      <c r="AF29" s="201"/>
-      <c r="AG29" s="202"/>
-      <c r="AH29" s="202"/>
-      <c r="AI29" s="203"/>
-    </row>
-    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="168"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="168"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="168"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="166"/>
+    </row>
+    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="195"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="201"/>
-      <c r="K30" s="202"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
-      <c r="O30" s="202"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="204"/>
-      <c r="R30" s="205"/>
-      <c r="S30" s="205"/>
-      <c r="T30" s="205"/>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="205"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="205"/>
-      <c r="AA30" s="205"/>
-      <c r="AB30" s="205"/>
-      <c r="AC30" s="205"/>
-      <c r="AD30" s="205"/>
-      <c r="AE30" s="206"/>
-      <c r="AF30" s="201"/>
-      <c r="AG30" s="202"/>
-      <c r="AH30" s="202"/>
-      <c r="AI30" s="203"/>
-    </row>
-    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="166"/>
+    </row>
+    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="195"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="201"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="203"/>
-      <c r="Q31" s="204"/>
-      <c r="R31" s="205"/>
-      <c r="S31" s="205"/>
-      <c r="T31" s="205"/>
-      <c r="U31" s="205"/>
-      <c r="V31" s="205"/>
-      <c r="W31" s="205"/>
-      <c r="X31" s="205"/>
-      <c r="Y31" s="205"/>
-      <c r="Z31" s="205"/>
-      <c r="AA31" s="205"/>
-      <c r="AB31" s="205"/>
-      <c r="AC31" s="205"/>
-      <c r="AD31" s="205"/>
-      <c r="AE31" s="206"/>
-      <c r="AF31" s="201"/>
-      <c r="AG31" s="202"/>
-      <c r="AH31" s="202"/>
-      <c r="AI31" s="203"/>
-    </row>
-    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="158"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="168"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="168"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="164"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="166"/>
+    </row>
+    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="195"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="201"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="202"/>
-      <c r="P32" s="203"/>
-      <c r="Q32" s="204"/>
-      <c r="R32" s="205"/>
-      <c r="S32" s="205"/>
-      <c r="T32" s="205"/>
-      <c r="U32" s="205"/>
-      <c r="V32" s="205"/>
-      <c r="W32" s="205"/>
-      <c r="X32" s="205"/>
-      <c r="Y32" s="205"/>
-      <c r="Z32" s="205"/>
-      <c r="AA32" s="205"/>
-      <c r="AB32" s="205"/>
-      <c r="AC32" s="205"/>
-      <c r="AD32" s="205"/>
-      <c r="AE32" s="206"/>
-      <c r="AF32" s="201"/>
-      <c r="AG32" s="202"/>
-      <c r="AH32" s="202"/>
-      <c r="AI32" s="203"/>
-    </row>
-    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="158"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="168"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="164"/>
+      <c r="AG32" s="165"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="166"/>
+    </row>
+    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="201"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="202"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="204"/>
-      <c r="R33" s="205"/>
-      <c r="S33" s="205"/>
-      <c r="T33" s="205"/>
-      <c r="U33" s="205"/>
-      <c r="V33" s="205"/>
-      <c r="W33" s="205"/>
-      <c r="X33" s="205"/>
-      <c r="Y33" s="205"/>
-      <c r="Z33" s="205"/>
-      <c r="AA33" s="205"/>
-      <c r="AB33" s="205"/>
-      <c r="AC33" s="205"/>
-      <c r="AD33" s="205"/>
-      <c r="AE33" s="206"/>
-      <c r="AF33" s="201"/>
-      <c r="AG33" s="202"/>
-      <c r="AH33" s="202"/>
-      <c r="AI33" s="203"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="158"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="168"/>
+      <c r="U33" s="168"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="165"/>
+      <c r="AH33" s="165"/>
+      <c r="AI33" s="166"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7834,6 +7553,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7843,7 +7718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7853,7 +7728,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="47" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="68" customWidth="1"/>
@@ -7988,160 +7863,160 @@
     <col min="16163" max="16384" width="4.83203125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="222" t="s">
+    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="225" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="222" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="240">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="225">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="242"/>
-    </row>
-    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="AH1" s="226"/>
+      <c r="AI1" s="227"/>
+    </row>
+    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="222" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="240" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="241"/>
-      <c r="AI2" s="242"/>
-    </row>
-    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="222" t="s">
+      <c r="AH2" s="226"/>
+      <c r="AI2" s="227"/>
+    </row>
+    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="224"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="240" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="225" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="241"/>
-      <c r="AI3" s="242"/>
-    </row>
-    <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="226"/>
+      <c r="AI3" s="227"/>
+    </row>
+    <row r="4" spans="1:35" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -8178,7 +8053,7 @@
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
     </row>
-    <row r="5" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -8217,7 +8092,7 @@
       <c r="AH5" s="36"/>
       <c r="AI5" s="36"/>
     </row>
-    <row r="6" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -8254,7 +8129,7 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="36"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="41" t="s">
         <v>148</v>
@@ -8293,7 +8168,7 @@
       <c r="AH7" s="45"/>
       <c r="AI7" s="46"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -8332,7 +8207,7 @@
       <c r="AH8" s="49"/>
       <c r="AI8" s="46"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="41" t="s">
@@ -8371,7 +8246,7 @@
       <c r="AH9" s="50"/>
       <c r="AI9" s="40"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -8408,7 +8283,7 @@
       <c r="AH10" s="45"/>
       <c r="AI10" s="46"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="51" t="s">
         <v>48</v>
@@ -8447,7 +8322,7 @@
       <c r="AH11" s="45"/>
       <c r="AI11" s="46"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="51" t="s">
@@ -8486,7 +8361,7 @@
       <c r="AH12" s="45"/>
       <c r="AI12" s="46"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="40" t="s">
@@ -8520,7 +8395,7 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="46"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="46"/>
       <c r="C14" s="51" t="s">
@@ -8559,7 +8434,7 @@
       <c r="AH14" s="45"/>
       <c r="AI14" s="46"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="51"/>
       <c r="C15" s="40" t="s">
@@ -8598,7 +8473,7 @@
       <c r="AH15" s="45"/>
       <c r="AI15" s="46"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51" t="s">
@@ -8633,7 +8508,7 @@
       <c r="AH16" s="45"/>
       <c r="AI16" s="46"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="36"/>
       <c r="C17" s="51"/>
@@ -8670,7 +8545,7 @@
       <c r="AH17" s="45"/>
       <c r="AI17" s="46"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="36"/>
       <c r="C18" s="40"/>
@@ -8707,7 +8582,7 @@
       <c r="AH18" s="45"/>
       <c r="AI18" s="46"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="36"/>
       <c r="C19" s="40"/>
@@ -8744,7 +8619,7 @@
       <c r="AH19" s="45"/>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="36"/>
       <c r="C20" s="40"/>
@@ -8781,7 +8656,7 @@
       <c r="AH20" s="45"/>
       <c r="AI20" s="46"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="36"/>
       <c r="C21" s="40"/>
@@ -8818,7 +8693,7 @@
       <c r="AH21" s="45"/>
       <c r="AI21" s="46"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="36"/>
       <c r="C22" s="40"/>
@@ -8855,7 +8730,7 @@
       <c r="AH22" s="45"/>
       <c r="AI22" s="46"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="52"/>
       <c r="C23" s="42"/>
@@ -8892,7 +8767,7 @@
       <c r="AH23" s="45"/>
       <c r="AI23" s="46"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="36"/>
       <c r="C24" s="40"/>
@@ -8929,7 +8804,7 @@
       <c r="AH24" s="45"/>
       <c r="AI24" s="46"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="36"/>
       <c r="C25" s="40"/>
@@ -8966,7 +8841,7 @@
       <c r="AH25" s="45"/>
       <c r="AI25" s="46"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="36"/>
       <c r="C26" s="40"/>
@@ -9003,7 +8878,7 @@
       <c r="AH26" s="45"/>
       <c r="AI26" s="46"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="36"/>
       <c r="C27" s="40"/>
@@ -9040,7 +8915,7 @@
       <c r="AH27" s="45"/>
       <c r="AI27" s="46"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="36"/>
       <c r="C28" s="40"/>
@@ -9077,7 +8952,7 @@
       <c r="AH28" s="45"/>
       <c r="AI28" s="46"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="36"/>
       <c r="C29" s="40"/>
@@ -9114,7 +8989,7 @@
       <c r="AH29" s="45"/>
       <c r="AI29" s="46"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -9151,7 +9026,7 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="57"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -9188,7 +9063,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="57"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="60"/>
       <c r="C32" s="40"/>
@@ -9225,7 +9100,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="57"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="60"/>
       <c r="C33" s="40"/>
@@ -9262,7 +9137,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="57"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="60"/>
       <c r="C34" s="40"/>
@@ -9299,7 +9174,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="57"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
       <c r="B35" s="60"/>
       <c r="C35" s="40"/>
@@ -9336,7 +9211,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="57"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -9373,7 +9248,7 @@
       <c r="AH36" s="65"/>
       <c r="AI36" s="53"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="66"/>
       <c r="E37" s="66"/>
       <c r="F37" s="66"/>
@@ -9405,7 +9280,7 @@
       <c r="AH37" s="73"/>
       <c r="AI37" s="69"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="69"/>
       <c r="T38" s="69"/>
       <c r="U38" s="70"/>
@@ -9424,7 +9299,7 @@
       <c r="AH38" s="76"/>
       <c r="AI38" s="69"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="77"/>
       <c r="S39" s="69"/>
       <c r="T39" s="70"/>
@@ -9444,7 +9319,7 @@
       <c r="AH39" s="76"/>
       <c r="AI39" s="69"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="69"/>
       <c r="T40" s="69"/>
       <c r="U40" s="69"/>
@@ -9463,7 +9338,7 @@
       <c r="AH40" s="76"/>
       <c r="AI40" s="69"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="66"/>
@@ -9477,37 +9352,37 @@
       <c r="AH41" s="76"/>
       <c r="AI41" s="69"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="69"/>
       <c r="AF42" s="74"/>
       <c r="AG42" s="75"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="69"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="69"/>
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="69"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="66"/>
       <c r="AF44" s="78"/>
       <c r="AG44" s="78"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="66"/>
       <c r="AG45" s="78"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="78"/>
       <c r="AG46" s="78"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="78"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="66"/>
       <c r="T48" s="66"/>
       <c r="V48" s="66"/>
@@ -9520,7 +9395,7 @@
       <c r="AC48" s="66"/>
       <c r="AD48" s="66"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="66"/>
       <c r="S49" s="66"/>
       <c r="T49" s="66"/>
@@ -9535,10 +9410,10 @@
       <c r="AD49" s="66"/>
       <c r="AG49" s="78"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="66"/>
     </row>
-    <row r="51" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -9571,7 +9446,7 @@
       <c r="AD51" s="47"/>
       <c r="AH51" s="77"/>
     </row>
-    <row r="52" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -9606,6 +9481,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9615,195 +9498,186 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:AH12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="32" width="4.83203125" style="51"/>
     <col min="33" max="33" width="4.83203125" style="51" customWidth="1"/>
     <col min="34" max="16384" width="4.83203125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="252" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
-    </row>
-    <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
+    </row>
+    <row r="2" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="252" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="272"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
-    </row>
-    <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
+    </row>
+    <row r="3" spans="1:38" s="79" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
-    </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1">
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="80"/>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -9840,7 +9714,7 @@
       <c r="AH4" s="80"/>
       <c r="AI4" s="80"/>
     </row>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="81" t="s">
         <v>148</v>
@@ -9879,7 +9753,7 @@
       <c r="AH5" s="80"/>
       <c r="AI5" s="80"/>
     </row>
-    <row r="6" spans="1:38" ht="12" customHeight="1">
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="81" t="s">
@@ -9917,7 +9791,7 @@
       <c r="AG6" s="80"/>
       <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="1:38" ht="12" customHeight="1">
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="80"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -9953,96 +9827,96 @@
       <c r="AG7" s="80"/>
       <c r="AH7" s="80"/>
     </row>
-    <row r="8" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="80"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="269" t="s">
+      <c r="D8" s="255" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="270"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="268" t="s">
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="257"/>
+      <c r="H8" s="265" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-    </row>
-    <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="265"/>
+      <c r="U8" s="265"/>
+      <c r="V8" s="265"/>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="265"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="265"/>
+      <c r="AH8" s="265"/>
+    </row>
+    <row r="9" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="270"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="264" t="s">
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="264"/>
-      <c r="M9" s="264"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="264"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="264"/>
-      <c r="R9" s="264"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="264"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="264"/>
-      <c r="W9" s="264"/>
-      <c r="X9" s="264"/>
-      <c r="Y9" s="264"/>
-      <c r="Z9" s="264"/>
-      <c r="AA9" s="264"/>
-      <c r="AB9" s="264"/>
-      <c r="AC9" s="264"/>
-      <c r="AD9" s="264"/>
-      <c r="AE9" s="264"/>
-      <c r="AF9" s="264"/>
-      <c r="AG9" s="264"/>
-      <c r="AH9" s="264"/>
-    </row>
-    <row r="10" spans="1:38" ht="12" customHeight="1">
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="261"/>
+      <c r="S9" s="261"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="261"/>
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+    </row>
+    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
-      <c r="D10" s="272" t="s">
+      <c r="D10" s="252" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="274"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="83" t="s">
         <v>56</v>
       </c>
@@ -10073,176 +9947,176 @@
       <c r="AG10" s="84"/>
       <c r="AH10" s="85"/>
     </row>
-    <row r="11" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="80"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
-      <c r="D11" s="269" t="s">
+      <c r="D11" s="255" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="271"/>
-      <c r="H11" s="268" t="s">
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="257"/>
+      <c r="H11" s="265" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="268"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="268"/>
-      <c r="AH11" s="268"/>
-    </row>
-    <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+      <c r="I11" s="265"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="265"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="265"/>
+      <c r="O11" s="265"/>
+      <c r="P11" s="265"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="265"/>
+      <c r="S11" s="265"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="265"/>
+      <c r="X11" s="265"/>
+      <c r="Y11" s="265"/>
+      <c r="Z11" s="265"/>
+      <c r="AA11" s="265"/>
+      <c r="AB11" s="265"/>
+      <c r="AC11" s="265"/>
+      <c r="AD11" s="265"/>
+      <c r="AE11" s="265"/>
+      <c r="AF11" s="265"/>
+      <c r="AG11" s="265"/>
+      <c r="AH11" s="265"/>
+    </row>
+    <row r="12" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="80"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
-      <c r="D12" s="269" t="s">
+      <c r="D12" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="270"/>
-      <c r="F12" s="270"/>
-      <c r="G12" s="271"/>
-      <c r="H12" s="264" t="s">
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="264"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="264"/>
-      <c r="L12" s="264"/>
-      <c r="M12" s="264"/>
-      <c r="N12" s="264"/>
-      <c r="O12" s="264"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="264"/>
-      <c r="T12" s="264"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="264"/>
-      <c r="W12" s="264"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="264"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="264"/>
-      <c r="AC12" s="264"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="264"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="264"/>
-      <c r="AH12" s="264"/>
-    </row>
-    <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+      <c r="I12" s="261"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="261"/>
+      <c r="S12" s="261"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="261"/>
+      <c r="V12" s="261"/>
+      <c r="W12" s="261"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="261"/>
+      <c r="Z12" s="261"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="261"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="261"/>
+      <c r="AF12" s="261"/>
+      <c r="AG12" s="261"/>
+      <c r="AH12" s="261"/>
+    </row>
+    <row r="13" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
-      <c r="D13" s="269" t="s">
+      <c r="D13" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="271"/>
-      <c r="H13" s="264" t="s">
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="264"/>
-      <c r="J13" s="264"/>
-      <c r="K13" s="264"/>
-      <c r="L13" s="264"/>
-      <c r="M13" s="264"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="264"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="264"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="264"/>
-      <c r="T13" s="264"/>
-      <c r="U13" s="264"/>
-      <c r="V13" s="264"/>
-      <c r="W13" s="264"/>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="264"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="264"/>
-      <c r="AB13" s="264"/>
-      <c r="AC13" s="264"/>
-      <c r="AD13" s="264"/>
-      <c r="AE13" s="264"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="264"/>
-      <c r="AH13" s="264"/>
-    </row>
-    <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="261"/>
+      <c r="M13" s="261"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="261"/>
+      <c r="S13" s="261"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="261"/>
+      <c r="V13" s="261"/>
+      <c r="W13" s="261"/>
+      <c r="X13" s="261"/>
+      <c r="Y13" s="261"/>
+      <c r="Z13" s="261"/>
+      <c r="AA13" s="261"/>
+      <c r="AB13" s="261"/>
+      <c r="AC13" s="261"/>
+      <c r="AD13" s="261"/>
+      <c r="AE13" s="261"/>
+      <c r="AF13" s="261"/>
+      <c r="AG13" s="261"/>
+      <c r="AH13" s="261"/>
+    </row>
+    <row r="14" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="80"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
-      <c r="D14" s="269" t="s">
+      <c r="D14" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="270"/>
-      <c r="F14" s="270"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="264" t="s">
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="264"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="264"/>
-      <c r="M14" s="264"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="264"/>
-      <c r="X14" s="264"/>
-      <c r="Y14" s="264"/>
-      <c r="Z14" s="264"/>
-      <c r="AA14" s="264"/>
-      <c r="AB14" s="264"/>
-      <c r="AC14" s="264"/>
-      <c r="AD14" s="264"/>
-      <c r="AE14" s="264"/>
-      <c r="AF14" s="264"/>
-      <c r="AG14" s="264"/>
-      <c r="AH14" s="264"/>
-    </row>
-    <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1">
+      <c r="I14" s="261"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="261"/>
+      <c r="L14" s="261"/>
+      <c r="M14" s="261"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="261"/>
+      <c r="S14" s="261"/>
+      <c r="T14" s="261"/>
+      <c r="U14" s="261"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="261"/>
+      <c r="X14" s="261"/>
+      <c r="Y14" s="261"/>
+      <c r="Z14" s="261"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
+      <c r="AD14" s="261"/>
+      <c r="AE14" s="261"/>
+      <c r="AF14" s="261"/>
+      <c r="AG14" s="261"/>
+      <c r="AH14" s="261"/>
+    </row>
+    <row r="15" spans="1:38" s="82" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="80"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="269" t="s">
+      <c r="D15" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="271"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="257"/>
       <c r="H15" s="86" t="s">
         <v>64</v>
       </c>
@@ -10273,7 +10147,7 @@
       <c r="AG15" s="87"/>
       <c r="AH15" s="88"/>
     </row>
-    <row r="16" spans="1:38" ht="12" customHeight="1">
+    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89"/>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
@@ -10313,7 +10187,7 @@
       <c r="AK16" s="91"/>
       <c r="AL16" s="91"/>
     </row>
-    <row r="17" spans="1:35" ht="12" customHeight="1">
+    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90"/>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
@@ -10350,7 +10224,7 @@
       <c r="AH17" s="90"/>
       <c r="AI17" s="80"/>
     </row>
-    <row r="18" spans="1:35" ht="12" customHeight="1">
+    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="90"/>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -10387,40 +10261,40 @@
       <c r="AH18" s="90"/>
       <c r="AI18" s="80"/>
     </row>
-    <row r="19" spans="1:35" s="95" customFormat="1" ht="12" customHeight="1">
+    <row r="19" spans="1:35" s="95" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="92"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93"/>
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="277"/>
-      <c r="L19" s="277"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="277"/>
-      <c r="O19" s="275"/>
-      <c r="P19" s="276"/>
-      <c r="Q19" s="276"/>
-      <c r="R19" s="276"/>
-      <c r="S19" s="276"/>
-      <c r="T19" s="276"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="276"/>
-      <c r="W19" s="276"/>
-      <c r="X19" s="276"/>
-      <c r="Y19" s="276"/>
-      <c r="Z19" s="276"/>
-      <c r="AA19" s="276"/>
-      <c r="AB19" s="276"/>
-      <c r="AC19" s="276"/>
-      <c r="AD19" s="276"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="260"/>
+      <c r="L19" s="260"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="260"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="259"/>
+      <c r="T19" s="259"/>
+      <c r="U19" s="259"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="259"/>
+      <c r="X19" s="259"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="259"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="259"/>
+      <c r="AC19" s="259"/>
+      <c r="AD19" s="259"/>
       <c r="AE19" s="94"/>
     </row>
-    <row r="20" spans="1:35" ht="12" customHeight="1">
+    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="80"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -10457,7 +10331,7 @@
       <c r="AH20" s="80"/>
       <c r="AI20" s="80"/>
     </row>
-    <row r="21" spans="1:35" ht="12" customHeight="1">
+    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="80"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -10494,7 +10368,7 @@
       <c r="AH21" s="80"/>
       <c r="AI21" s="80"/>
     </row>
-    <row r="22" spans="1:35" ht="12" customHeight="1">
+    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="80"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -10531,7 +10405,7 @@
       <c r="AH22" s="80"/>
       <c r="AI22" s="80"/>
     </row>
-    <row r="23" spans="1:35" ht="12" customHeight="1">
+    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="80"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -10568,7 +10442,7 @@
       <c r="AH23" s="80"/>
       <c r="AI23" s="80"/>
     </row>
-    <row r="24" spans="1:35" ht="12" customHeight="1">
+    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -10605,7 +10479,7 @@
       <c r="AH24" s="80"/>
       <c r="AI24" s="80"/>
     </row>
-    <row r="25" spans="1:35" ht="12" customHeight="1">
+    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="80"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -10642,7 +10516,7 @@
       <c r="AH25" s="80"/>
       <c r="AI25" s="80"/>
     </row>
-    <row r="26" spans="1:35" ht="12" customHeight="1">
+    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="80"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -10679,7 +10553,7 @@
       <c r="AH26" s="80"/>
       <c r="AI26" s="80"/>
     </row>
-    <row r="27" spans="1:35" ht="12" customHeight="1">
+    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="80"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -10716,7 +10590,7 @@
       <c r="AH27" s="80"/>
       <c r="AI27" s="80"/>
     </row>
-    <row r="28" spans="1:35" ht="12" customHeight="1">
+    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="80"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -10753,7 +10627,7 @@
       <c r="AH28" s="80"/>
       <c r="AI28" s="80"/>
     </row>
-    <row r="29" spans="1:35" ht="12" customHeight="1">
+    <row r="29" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -10790,7 +10664,7 @@
       <c r="AH29" s="80"/>
       <c r="AI29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="12" customHeight="1">
+    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="80"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -10827,7 +10701,7 @@
       <c r="AH30" s="80"/>
       <c r="AI30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="12" customHeight="1">
+    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="80"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -10864,20 +10738,19 @@
       <c r="AH31" s="80"/>
       <c r="AI31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
+    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10894,14 +10767,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10910,199 +10784,191 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="252" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
-    </row>
-    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
+    </row>
+    <row r="2" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="252" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="272"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="266" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
-    </row>
-    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="252" t="s">
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
+    </row>
+    <row r="3" spans="1:35" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="J13" s="96" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="22:22"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11114,6 +10980,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11123,7 +10995,6 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11138,175 +11009,175 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="234" t="str">
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="255" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="243" t="str">
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="252" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="254"/>
-      <c r="AC1" s="237" t="str">
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="239"/>
-      <c r="AG1" s="265">
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="223"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="266"/>
-      <c r="AI1" s="267"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
       <c r="AJ1" s="97"/>
       <c r="AK1" s="97"/>
       <c r="AL1" s="98"/>
     </row>
-    <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="252" t="s">
+    <row r="2" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="234" t="str">
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="247"/>
-      <c r="V2" s="247"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="248"/>
-      <c r="AA2" s="252" t="s">
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="272"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="237" t="str">
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="238"/>
-      <c r="AE2" s="238"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="265" t="str">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="267"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
       <c r="AJ2" s="97"/>
       <c r="AK2" s="97"/>
       <c r="AL2" s="97"/>
     </row>
-    <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="252" t="s">
+    <row r="3" spans="1:38" s="35" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="266" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="234" t="str">
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="228" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="249"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="250"/>
-      <c r="X3" s="250"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="237" t="str">
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="239"/>
-      <c r="AG3" s="265" t="str">
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="223"/>
+      <c r="AF3" s="224"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="266"/>
-      <c r="AI3" s="267"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
       <c r="AJ3" s="97"/>
       <c r="AK3" s="97"/>
       <c r="AL3" s="97"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="80" t="s">
         <v>66</v>
       </c>
@@ -11343,7 +11214,7 @@
       <c r="AG5" s="80"/>
       <c r="AH5" s="80"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="80"/>
       <c r="C6" s="80" t="s">
         <v>49</v>
@@ -11380,7 +11251,7 @@
       <c r="AG6" s="80"/>
       <c r="AH6" s="80"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
       <c r="D7" s="99"/>
@@ -11415,68 +11286,68 @@
       <c r="AG7" s="80"/>
       <c r="AH7" s="80"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
-      <c r="D8" s="347" t="s">
+      <c r="D8" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="349" t="s">
+      <c r="E8" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="351"/>
-      <c r="K8" s="349" t="s">
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="350"/>
-      <c r="M8" s="350"/>
-      <c r="N8" s="351"/>
-      <c r="O8" s="358" t="s">
+      <c r="L8" s="289"/>
+      <c r="M8" s="289"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="302" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="363" t="s">
+      <c r="P8" s="307" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="364"/>
-      <c r="R8" s="364"/>
-      <c r="S8" s="364"/>
-      <c r="T8" s="364"/>
-      <c r="U8" s="365"/>
-      <c r="V8" s="360" t="s">
+      <c r="Q8" s="308"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="309"/>
+      <c r="V8" s="304" t="s">
         <v>71</v>
       </c>
-      <c r="W8" s="360"/>
-      <c r="X8" s="360"/>
-      <c r="Y8" s="360"/>
-      <c r="Z8" s="360"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="360"/>
-      <c r="AC8" s="360"/>
-      <c r="AD8" s="360"/>
-      <c r="AE8" s="360"/>
-      <c r="AF8" s="360"/>
-      <c r="AG8" s="360"/>
-      <c r="AH8" s="360"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="W8" s="304"/>
+      <c r="X8" s="304"/>
+      <c r="Y8" s="304"/>
+      <c r="Z8" s="304"/>
+      <c r="AA8" s="304"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="304"/>
+      <c r="AD8" s="304"/>
+      <c r="AE8" s="304"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="304"/>
+      <c r="AH8" s="304"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="353"/>
-      <c r="G9" s="353"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="353"/>
-      <c r="J9" s="354"/>
-      <c r="K9" s="352"/>
-      <c r="L9" s="353"/>
-      <c r="M9" s="353"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="359"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="292"/>
+      <c r="M9" s="292"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="303"/>
       <c r="P9" s="100" t="s">
         <v>72</v>
       </c>
@@ -11489,44 +11360,44 @@
       <c r="S9" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="361" t="s">
+      <c r="T9" s="305" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="362"/>
-      <c r="V9" s="360"/>
-      <c r="W9" s="360"/>
-      <c r="X9" s="360"/>
-      <c r="Y9" s="360"/>
-      <c r="Z9" s="360"/>
-      <c r="AA9" s="360"/>
-      <c r="AB9" s="360"/>
-      <c r="AC9" s="360"/>
-      <c r="AD9" s="360"/>
-      <c r="AE9" s="360"/>
-      <c r="AF9" s="360"/>
-      <c r="AG9" s="360"/>
-      <c r="AH9" s="360"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="U9" s="306"/>
+      <c r="V9" s="304"/>
+      <c r="W9" s="304"/>
+      <c r="X9" s="304"/>
+      <c r="Y9" s="304"/>
+      <c r="Z9" s="304"/>
+      <c r="AA9" s="304"/>
+      <c r="AB9" s="304"/>
+      <c r="AC9" s="304"/>
+      <c r="AD9" s="304"/>
+      <c r="AE9" s="304"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="304"/>
+      <c r="AH9" s="304"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
       <c r="D10" s="101">
         <v>1</v>
       </c>
-      <c r="E10" s="287" t="s">
+      <c r="E10" s="297" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="287" t="s">
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="289"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="298"/>
+      <c r="N10" s="299"/>
       <c r="O10" s="102" t="s">
         <v>79</v>
       </c>
@@ -11542,44 +11413,44 @@
       <c r="S10" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="279" t="s">
+      <c r="T10" s="300" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="280"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="288"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="288"/>
-      <c r="Z10" s="288"/>
-      <c r="AA10" s="288"/>
-      <c r="AB10" s="288"/>
-      <c r="AC10" s="288"/>
-      <c r="AD10" s="288"/>
-      <c r="AE10" s="288"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="288"/>
-      <c r="AH10" s="289"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="U10" s="301"/>
+      <c r="V10" s="297"/>
+      <c r="W10" s="298"/>
+      <c r="X10" s="298"/>
+      <c r="Y10" s="298"/>
+      <c r="Z10" s="298"/>
+      <c r="AA10" s="298"/>
+      <c r="AB10" s="298"/>
+      <c r="AC10" s="298"/>
+      <c r="AD10" s="298"/>
+      <c r="AE10" s="298"/>
+      <c r="AF10" s="298"/>
+      <c r="AG10" s="298"/>
+      <c r="AH10" s="299"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="101">
         <v>2</v>
       </c>
-      <c r="E11" s="287" t="s">
+      <c r="E11" s="297" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="287" t="s">
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="297" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="289"/>
+      <c r="L11" s="298"/>
+      <c r="M11" s="298"/>
+      <c r="N11" s="299"/>
       <c r="O11" s="104" t="s">
         <v>83</v>
       </c>
@@ -11595,44 +11466,44 @@
       <c r="S11" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="T11" s="279" t="s">
+      <c r="T11" s="300" t="s">
         <v>80</v>
       </c>
-      <c r="U11" s="280"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="288"/>
-      <c r="Z11" s="288"/>
-      <c r="AA11" s="288"/>
-      <c r="AB11" s="288"/>
-      <c r="AC11" s="288"/>
-      <c r="AD11" s="288"/>
-      <c r="AE11" s="288"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="288"/>
-      <c r="AH11" s="289"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="U11" s="301"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="298"/>
+      <c r="Y11" s="298"/>
+      <c r="Z11" s="298"/>
+      <c r="AA11" s="298"/>
+      <c r="AB11" s="298"/>
+      <c r="AC11" s="298"/>
+      <c r="AD11" s="298"/>
+      <c r="AE11" s="298"/>
+      <c r="AF11" s="298"/>
+      <c r="AG11" s="298"/>
+      <c r="AH11" s="299"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
       <c r="D12" s="101">
         <v>3</v>
       </c>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="297" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="289"/>
-      <c r="K12" s="287" t="s">
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
+      <c r="I12" s="298"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="297" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="289"/>
+      <c r="L12" s="298"/>
+      <c r="M12" s="298"/>
+      <c r="N12" s="299"/>
       <c r="O12" s="104" t="s">
         <v>83</v>
       </c>
@@ -11648,25 +11519,25 @@
       <c r="S12" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="T12" s="279" t="s">
+      <c r="T12" s="300" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="280"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="288"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="288"/>
-      <c r="Z12" s="288"/>
-      <c r="AA12" s="288"/>
-      <c r="AB12" s="288"/>
-      <c r="AC12" s="288"/>
-      <c r="AD12" s="288"/>
-      <c r="AE12" s="288"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="288"/>
-      <c r="AH12" s="289"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="U12" s="301"/>
+      <c r="V12" s="297"/>
+      <c r="W12" s="298"/>
+      <c r="X12" s="298"/>
+      <c r="Y12" s="298"/>
+      <c r="Z12" s="298"/>
+      <c r="AA12" s="298"/>
+      <c r="AB12" s="298"/>
+      <c r="AC12" s="298"/>
+      <c r="AD12" s="298"/>
+      <c r="AE12" s="298"/>
+      <c r="AF12" s="298"/>
+      <c r="AG12" s="298"/>
+      <c r="AH12" s="299"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="105"/>
@@ -11701,7 +11572,7 @@
       <c r="AG13" s="109"/>
       <c r="AH13" s="109"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="99"/>
@@ -11736,7 +11607,7 @@
       <c r="AG14" s="80"/>
       <c r="AH14" s="80"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B15" s="80"/>
       <c r="C15" s="96" t="s">
         <v>50</v>
@@ -11773,7 +11644,7 @@
       <c r="AG15" s="90"/>
       <c r="AH15" s="90"/>
     </row>
-    <row r="16" spans="1:38" s="110" customFormat="1">
+    <row r="16" spans="1:38" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="80"/>
       <c r="C16" s="90"/>
       <c r="D16" s="90"/>
@@ -11808,171 +11679,171 @@
       <c r="AG16" s="90"/>
       <c r="AH16" s="90"/>
     </row>
-    <row r="17" spans="1:35" s="110" customFormat="1" ht="24.75" customHeight="1">
+    <row r="17" spans="1:35" s="110" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="80"/>
       <c r="C17" s="90"/>
       <c r="D17" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="366" t="s">
+      <c r="E17" s="311" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="367"/>
-      <c r="G17" s="368"/>
-      <c r="H17" s="284" t="s">
+      <c r="F17" s="312"/>
+      <c r="G17" s="313"/>
+      <c r="H17" s="363" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="285"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="285"/>
-      <c r="N17" s="285"/>
-      <c r="O17" s="285"/>
-      <c r="P17" s="285"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="285"/>
-      <c r="S17" s="285"/>
-      <c r="T17" s="285"/>
-      <c r="U17" s="285"/>
-      <c r="V17" s="285"/>
-      <c r="W17" s="285"/>
-      <c r="X17" s="285"/>
-      <c r="Y17" s="285"/>
-      <c r="Z17" s="285"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="285"/>
-      <c r="AC17" s="285"/>
-      <c r="AD17" s="285"/>
-      <c r="AE17" s="285"/>
-      <c r="AF17" s="285"/>
-      <c r="AG17" s="285"/>
-      <c r="AH17" s="286"/>
-    </row>
-    <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1">
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="364"/>
+      <c r="Q17" s="364"/>
+      <c r="R17" s="364"/>
+      <c r="S17" s="364"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="364"/>
+      <c r="V17" s="364"/>
+      <c r="W17" s="364"/>
+      <c r="X17" s="364"/>
+      <c r="Y17" s="364"/>
+      <c r="Z17" s="364"/>
+      <c r="AA17" s="364"/>
+      <c r="AB17" s="364"/>
+      <c r="AC17" s="364"/>
+      <c r="AD17" s="364"/>
+      <c r="AE17" s="364"/>
+      <c r="AF17" s="364"/>
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="365"/>
+    </row>
+    <row r="18" spans="1:35" s="110" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="80"/>
       <c r="C18" s="90"/>
       <c r="D18" s="101">
         <v>1</v>
       </c>
-      <c r="E18" s="287" t="s">
+      <c r="E18" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="288"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="287" t="s">
+      <c r="F18" s="298"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="288"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="288"/>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="289"/>
-    </row>
-    <row r="19" spans="1:35" ht="23.25" customHeight="1">
+      <c r="I18" s="298"/>
+      <c r="J18" s="298"/>
+      <c r="K18" s="298"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="298"/>
+      <c r="N18" s="298"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="298"/>
+      <c r="V18" s="298"/>
+      <c r="W18" s="298"/>
+      <c r="X18" s="298"/>
+      <c r="Y18" s="298"/>
+      <c r="Z18" s="298"/>
+      <c r="AA18" s="298"/>
+      <c r="AB18" s="298"/>
+      <c r="AC18" s="298"/>
+      <c r="AD18" s="298"/>
+      <c r="AE18" s="298"/>
+      <c r="AF18" s="298"/>
+      <c r="AG18" s="298"/>
+      <c r="AH18" s="299"/>
+    </row>
+    <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="90"/>
       <c r="D19" s="101">
         <v>2</v>
       </c>
-      <c r="E19" s="287" t="s">
+      <c r="E19" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="288"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="287" t="s">
+      <c r="F19" s="298"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="297" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="288"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="288"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
-      <c r="N19" s="288"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="288"/>
-      <c r="R19" s="288"/>
-      <c r="S19" s="288"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="288"/>
-      <c r="W19" s="288"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="288"/>
-      <c r="Z19" s="288"/>
-      <c r="AA19" s="288"/>
-      <c r="AB19" s="288"/>
-      <c r="AC19" s="288"/>
-      <c r="AD19" s="288"/>
-      <c r="AE19" s="288"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="288"/>
-      <c r="AH19" s="289"/>
-    </row>
-    <row r="20" spans="1:35" ht="23.25" customHeight="1">
+      <c r="I19" s="298"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="298"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="298"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="298"/>
+      <c r="Q19" s="298"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="298"/>
+      <c r="W19" s="298"/>
+      <c r="X19" s="298"/>
+      <c r="Y19" s="298"/>
+      <c r="Z19" s="298"/>
+      <c r="AA19" s="298"/>
+      <c r="AB19" s="298"/>
+      <c r="AC19" s="298"/>
+      <c r="AD19" s="298"/>
+      <c r="AE19" s="298"/>
+      <c r="AF19" s="298"/>
+      <c r="AG19" s="298"/>
+      <c r="AH19" s="299"/>
+    </row>
+    <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="90"/>
       <c r="D20" s="101">
         <v>3</v>
       </c>
-      <c r="E20" s="287" t="s">
+      <c r="E20" s="297" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="288"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="287" t="s">
+      <c r="F20" s="298"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="297" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="288"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="288"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="288"/>
-      <c r="N20" s="288"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="288"/>
-      <c r="Q20" s="288"/>
-      <c r="R20" s="288"/>
-      <c r="S20" s="288"/>
-      <c r="T20" s="288"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="288"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="288"/>
-      <c r="Z20" s="288"/>
-      <c r="AA20" s="288"/>
-      <c r="AB20" s="288"/>
-      <c r="AC20" s="288"/>
-      <c r="AD20" s="288"/>
-      <c r="AE20" s="288"/>
-      <c r="AF20" s="288"/>
-      <c r="AG20" s="288"/>
-      <c r="AH20" s="289"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="I20" s="298"/>
+      <c r="J20" s="298"/>
+      <c r="K20" s="298"/>
+      <c r="L20" s="298"/>
+      <c r="M20" s="298"/>
+      <c r="N20" s="298"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="298"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="298"/>
+      <c r="V20" s="298"/>
+      <c r="W20" s="298"/>
+      <c r="X20" s="298"/>
+      <c r="Y20" s="298"/>
+      <c r="Z20" s="298"/>
+      <c r="AA20" s="298"/>
+      <c r="AB20" s="298"/>
+      <c r="AC20" s="298"/>
+      <c r="AD20" s="298"/>
+      <c r="AE20" s="298"/>
+      <c r="AF20" s="298"/>
+      <c r="AG20" s="298"/>
+      <c r="AH20" s="299"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" s="112"/>
       <c r="C21" s="90"/>
       <c r="D21" s="113"/>
@@ -12007,7 +11878,7 @@
       <c r="AG21" s="90"/>
       <c r="AH21" s="90"/>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B22" s="112"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112"/>
@@ -12042,7 +11913,7 @@
       <c r="AG22" s="90"/>
       <c r="AH22" s="90"/>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B23" s="112"/>
       <c r="C23" s="90" t="s">
         <v>51</v>
@@ -12079,7 +11950,7 @@
       <c r="AG23" s="118"/>
       <c r="AH23" s="118"/>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" s="112"/>
       <c r="C24" s="90"/>
       <c r="D24" s="117" t="s">
@@ -12116,7 +11987,7 @@
       <c r="AG24" s="118"/>
       <c r="AH24" s="118"/>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B25" s="112"/>
       <c r="C25" s="90"/>
       <c r="D25" s="117"/>
@@ -12151,7 +12022,7 @@
       <c r="AG25" s="118"/>
       <c r="AH25" s="118"/>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B26" s="112"/>
       <c r="C26" s="90"/>
       <c r="E26" s="119" t="s">
@@ -12193,7 +12064,7 @@
       <c r="AG26" s="118"/>
       <c r="AH26" s="125"/>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="112"/>
       <c r="C27" s="90"/>
@@ -12237,11 +12108,11 @@
       <c r="AG27" s="118"/>
       <c r="AH27" s="125"/>
     </row>
-    <row r="28" spans="1:35" s="134" customFormat="1">
+    <row r="28" spans="1:35" s="134" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="82"/>
       <c r="D28" s="82"/>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -12278,7 +12149,7 @@
       <c r="AH29" s="40"/>
       <c r="AI29" s="40"/>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40" t="s">
@@ -12317,7 +12188,7 @@
       <c r="AH30" s="40"/>
       <c r="AI30" s="40"/>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -12356,7 +12227,7 @@
       <c r="AH31" s="40"/>
       <c r="AI31" s="40"/>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -12393,7 +12264,7 @@
       <c r="AH32" s="40"/>
       <c r="AI32" s="40"/>
     </row>
-    <row r="33" spans="1:35" ht="41.25" customHeight="1">
+    <row r="33" spans="1:35" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -12401,48 +12272,48 @@
       <c r="E33" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="308" t="s">
+      <c r="F33" s="331" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="309"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="309"/>
-      <c r="J33" s="309"/>
-      <c r="K33" s="310"/>
-      <c r="L33" s="308" t="s">
+      <c r="G33" s="332"/>
+      <c r="H33" s="332"/>
+      <c r="I33" s="332"/>
+      <c r="J33" s="332"/>
+      <c r="K33" s="333"/>
+      <c r="L33" s="331" t="s">
         <v>103</v>
       </c>
-      <c r="M33" s="309"/>
-      <c r="N33" s="309"/>
-      <c r="O33" s="309"/>
-      <c r="P33" s="309"/>
-      <c r="Q33" s="309"/>
-      <c r="R33" s="309"/>
-      <c r="S33" s="309"/>
-      <c r="T33" s="309"/>
-      <c r="U33" s="310"/>
-      <c r="V33" s="311" t="s">
+      <c r="M33" s="332"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
+      <c r="P33" s="332"/>
+      <c r="Q33" s="332"/>
+      <c r="R33" s="332"/>
+      <c r="S33" s="332"/>
+      <c r="T33" s="332"/>
+      <c r="U33" s="333"/>
+      <c r="V33" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="W33" s="312"/>
-      <c r="X33" s="313"/>
-      <c r="Y33" s="311" t="s">
+      <c r="W33" s="284"/>
+      <c r="X33" s="285"/>
+      <c r="Y33" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="Z33" s="312"/>
-      <c r="AA33" s="312"/>
-      <c r="AB33" s="313"/>
-      <c r="AC33" s="314" t="s">
+      <c r="Z33" s="284"/>
+      <c r="AA33" s="284"/>
+      <c r="AB33" s="285"/>
+      <c r="AC33" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="AD33" s="315"/>
-      <c r="AE33" s="315"/>
-      <c r="AF33" s="316"/>
+      <c r="AD33" s="335"/>
+      <c r="AE33" s="335"/>
+      <c r="AF33" s="336"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="40"/>
       <c r="AI33" s="40"/>
     </row>
-    <row r="34" spans="1:35" ht="36.75" customHeight="1">
+    <row r="34" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -12450,48 +12321,48 @@
       <c r="E34" s="136">
         <v>1</v>
       </c>
-      <c r="F34" s="320" t="s">
+      <c r="F34" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="321"/>
-      <c r="H34" s="321"/>
-      <c r="I34" s="321"/>
-      <c r="J34" s="321"/>
-      <c r="K34" s="322"/>
-      <c r="L34" s="320" t="s">
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="280"/>
+      <c r="J34" s="280"/>
+      <c r="K34" s="281"/>
+      <c r="L34" s="279" t="s">
         <v>108</v>
       </c>
-      <c r="M34" s="321"/>
-      <c r="N34" s="321"/>
-      <c r="O34" s="321"/>
-      <c r="P34" s="321"/>
-      <c r="Q34" s="321"/>
-      <c r="R34" s="321"/>
-      <c r="S34" s="321"/>
-      <c r="T34" s="321"/>
-      <c r="U34" s="322"/>
-      <c r="V34" s="340" t="s">
+      <c r="M34" s="280"/>
+      <c r="N34" s="280"/>
+      <c r="O34" s="280"/>
+      <c r="P34" s="280"/>
+      <c r="Q34" s="280"/>
+      <c r="R34" s="280"/>
+      <c r="S34" s="280"/>
+      <c r="T34" s="280"/>
+      <c r="U34" s="281"/>
+      <c r="V34" s="357" t="s">
         <v>109</v>
       </c>
-      <c r="W34" s="341"/>
-      <c r="X34" s="342"/>
-      <c r="Y34" s="317" t="s">
+      <c r="W34" s="358"/>
+      <c r="X34" s="359"/>
+      <c r="Y34" s="337" t="s">
         <v>109</v>
       </c>
-      <c r="Z34" s="318"/>
-      <c r="AA34" s="318"/>
-      <c r="AB34" s="319"/>
-      <c r="AC34" s="320" t="s">
+      <c r="Z34" s="338"/>
+      <c r="AA34" s="338"/>
+      <c r="AB34" s="339"/>
+      <c r="AC34" s="279" t="s">
         <v>80</v>
       </c>
-      <c r="AD34" s="321"/>
-      <c r="AE34" s="321"/>
-      <c r="AF34" s="322"/>
+      <c r="AD34" s="280"/>
+      <c r="AE34" s="280"/>
+      <c r="AF34" s="281"/>
       <c r="AG34" s="40"/>
       <c r="AH34" s="40"/>
       <c r="AI34" s="40"/>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -12528,7 +12399,7 @@
       <c r="AH35" s="40"/>
       <c r="AI35" s="40"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -12545,85 +12416,85 @@
       <c r="AH36" s="40"/>
       <c r="AI36" s="40"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="E37" s="369" t="s">
+      <c r="E37" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="370"/>
-      <c r="G37" s="370"/>
-      <c r="H37" s="370"/>
-      <c r="I37" s="370"/>
-      <c r="J37" s="278" t="s">
+      <c r="F37" s="287"/>
+      <c r="G37" s="287"/>
+      <c r="H37" s="287"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="282" t="s">
         <v>111</v>
       </c>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
-      <c r="M37" s="311" t="s">
+      <c r="K37" s="282"/>
+      <c r="L37" s="282"/>
+      <c r="M37" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="N37" s="312"/>
-      <c r="O37" s="312"/>
-      <c r="P37" s="312"/>
-      <c r="Q37" s="312"/>
-      <c r="R37" s="312"/>
-      <c r="S37" s="313"/>
-      <c r="T37" s="311" t="s">
+      <c r="N37" s="284"/>
+      <c r="O37" s="284"/>
+      <c r="P37" s="284"/>
+      <c r="Q37" s="284"/>
+      <c r="R37" s="284"/>
+      <c r="S37" s="285"/>
+      <c r="T37" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="U37" s="312"/>
-      <c r="V37" s="312"/>
-      <c r="W37" s="312"/>
-      <c r="X37" s="312"/>
-      <c r="Y37" s="312"/>
-      <c r="Z37" s="312"/>
-      <c r="AA37" s="312"/>
-      <c r="AB37" s="312"/>
-      <c r="AC37" s="312"/>
-      <c r="AD37" s="313"/>
-    </row>
-    <row r="38" spans="1:35" ht="11.25" customHeight="1">
+      <c r="U37" s="284"/>
+      <c r="V37" s="284"/>
+      <c r="W37" s="284"/>
+      <c r="X37" s="284"/>
+      <c r="Y37" s="284"/>
+      <c r="Z37" s="284"/>
+      <c r="AA37" s="284"/>
+      <c r="AB37" s="284"/>
+      <c r="AC37" s="284"/>
+      <c r="AD37" s="285"/>
+    </row>
+    <row r="38" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="E38" s="320" t="s">
+      <c r="E38" s="279" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
-      <c r="J38" s="371" t="s">
+      <c r="F38" s="280"/>
+      <c r="G38" s="280"/>
+      <c r="H38" s="280"/>
+      <c r="I38" s="280"/>
+      <c r="J38" s="278" t="s">
         <v>113</v>
       </c>
-      <c r="K38" s="371"/>
-      <c r="L38" s="371"/>
-      <c r="M38" s="320" t="s">
+      <c r="K38" s="278"/>
+      <c r="L38" s="278"/>
+      <c r="M38" s="279" t="s">
         <v>109</v>
       </c>
-      <c r="N38" s="321"/>
-      <c r="O38" s="321"/>
-      <c r="P38" s="321"/>
-      <c r="Q38" s="321"/>
-      <c r="R38" s="321"/>
-      <c r="S38" s="322"/>
-      <c r="T38" s="320" t="s">
+      <c r="N38" s="280"/>
+      <c r="O38" s="280"/>
+      <c r="P38" s="280"/>
+      <c r="Q38" s="280"/>
+      <c r="R38" s="280"/>
+      <c r="S38" s="281"/>
+      <c r="T38" s="279" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="321"/>
-      <c r="V38" s="321"/>
-      <c r="W38" s="321"/>
-      <c r="X38" s="321"/>
-      <c r="Y38" s="321"/>
-      <c r="Z38" s="321"/>
-      <c r="AA38" s="321"/>
-      <c r="AB38" s="321"/>
-      <c r="AC38" s="321"/>
-      <c r="AD38" s="322"/>
-    </row>
-    <row r="39" spans="1:35" ht="11.25" customHeight="1">
+      <c r="U38" s="280"/>
+      <c r="V38" s="280"/>
+      <c r="W38" s="280"/>
+      <c r="X38" s="280"/>
+      <c r="Y38" s="280"/>
+      <c r="Z38" s="280"/>
+      <c r="AA38" s="280"/>
+      <c r="AB38" s="280"/>
+      <c r="AC38" s="280"/>
+      <c r="AD38" s="281"/>
+    </row>
+    <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -12654,7 +12525,7 @@
       <c r="AC39" s="137"/>
       <c r="AD39" s="137"/>
     </row>
-    <row r="40" spans="1:35" ht="11.25" customHeight="1">
+    <row r="40" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -12685,7 +12556,7 @@
       <c r="AC40" s="137"/>
       <c r="AD40" s="137"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -12724,7 +12595,7 @@
       <c r="AH41" s="40"/>
       <c r="AI41" s="40"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -12761,35 +12632,35 @@
       <c r="AH42" s="40"/>
       <c r="AI42" s="40"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="296" t="s">
+      <c r="E43" s="369" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
-      <c r="H43" s="297"/>
-      <c r="I43" s="297"/>
-      <c r="J43" s="297"/>
-      <c r="K43" s="297"/>
-      <c r="L43" s="297"/>
-      <c r="M43" s="297"/>
-      <c r="N43" s="298"/>
-      <c r="O43" s="323" t="s">
+      <c r="F43" s="370"/>
+      <c r="G43" s="370"/>
+      <c r="H43" s="370"/>
+      <c r="I43" s="370"/>
+      <c r="J43" s="370"/>
+      <c r="K43" s="370"/>
+      <c r="L43" s="370"/>
+      <c r="M43" s="370"/>
+      <c r="N43" s="371"/>
+      <c r="O43" s="340" t="s">
         <v>116</v>
       </c>
-      <c r="P43" s="324"/>
-      <c r="Q43" s="324"/>
-      <c r="R43" s="324"/>
-      <c r="S43" s="324"/>
-      <c r="T43" s="324"/>
-      <c r="U43" s="324"/>
-      <c r="V43" s="324"/>
-      <c r="W43" s="324"/>
-      <c r="X43" s="325"/>
+      <c r="P43" s="341"/>
+      <c r="Q43" s="341"/>
+      <c r="R43" s="341"/>
+      <c r="S43" s="341"/>
+      <c r="T43" s="341"/>
+      <c r="U43" s="341"/>
+      <c r="V43" s="341"/>
+      <c r="W43" s="341"/>
+      <c r="X43" s="342"/>
       <c r="Y43" s="40"/>
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
@@ -12802,35 +12673,35 @@
       <c r="AH43" s="40"/>
       <c r="AI43" s="40"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="326" t="s">
+      <c r="E44" s="343" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="327"/>
-      <c r="G44" s="327"/>
-      <c r="H44" s="327"/>
-      <c r="I44" s="327"/>
-      <c r="J44" s="327"/>
-      <c r="K44" s="327"/>
-      <c r="L44" s="327"/>
-      <c r="M44" s="327"/>
-      <c r="N44" s="328"/>
-      <c r="O44" s="335" t="s">
+      <c r="F44" s="344"/>
+      <c r="G44" s="344"/>
+      <c r="H44" s="344"/>
+      <c r="I44" s="344"/>
+      <c r="J44" s="344"/>
+      <c r="K44" s="344"/>
+      <c r="L44" s="344"/>
+      <c r="M44" s="344"/>
+      <c r="N44" s="345"/>
+      <c r="O44" s="352" t="s">
         <v>99</v>
       </c>
-      <c r="P44" s="335"/>
-      <c r="Q44" s="335"/>
-      <c r="R44" s="335"/>
-      <c r="S44" s="335"/>
-      <c r="T44" s="335"/>
-      <c r="U44" s="335"/>
-      <c r="V44" s="335"/>
-      <c r="W44" s="335"/>
-      <c r="X44" s="336"/>
+      <c r="P44" s="352"/>
+      <c r="Q44" s="352"/>
+      <c r="R44" s="352"/>
+      <c r="S44" s="352"/>
+      <c r="T44" s="352"/>
+      <c r="U44" s="352"/>
+      <c r="V44" s="352"/>
+      <c r="W44" s="352"/>
+      <c r="X44" s="353"/>
       <c r="Y44" s="40"/>
       <c r="Z44" s="40"/>
       <c r="AA44" s="40"/>
@@ -12843,33 +12714,33 @@
       <c r="AH44" s="40"/>
       <c r="AI44" s="40"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="329"/>
-      <c r="F45" s="330"/>
-      <c r="G45" s="330"/>
-      <c r="H45" s="330"/>
-      <c r="I45" s="330"/>
-      <c r="J45" s="330"/>
-      <c r="K45" s="330"/>
-      <c r="L45" s="330"/>
-      <c r="M45" s="330"/>
-      <c r="N45" s="331"/>
-      <c r="O45" s="335" t="s">
+      <c r="E45" s="346"/>
+      <c r="F45" s="347"/>
+      <c r="G45" s="347"/>
+      <c r="H45" s="347"/>
+      <c r="I45" s="347"/>
+      <c r="J45" s="347"/>
+      <c r="K45" s="347"/>
+      <c r="L45" s="347"/>
+      <c r="M45" s="347"/>
+      <c r="N45" s="348"/>
+      <c r="O45" s="352" t="s">
         <v>117</v>
       </c>
-      <c r="P45" s="335"/>
-      <c r="Q45" s="335"/>
-      <c r="R45" s="335"/>
-      <c r="S45" s="335"/>
-      <c r="T45" s="335"/>
-      <c r="U45" s="335"/>
-      <c r="V45" s="335"/>
-      <c r="W45" s="335"/>
-      <c r="X45" s="336"/>
+      <c r="P45" s="352"/>
+      <c r="Q45" s="352"/>
+      <c r="R45" s="352"/>
+      <c r="S45" s="352"/>
+      <c r="T45" s="352"/>
+      <c r="U45" s="352"/>
+      <c r="V45" s="352"/>
+      <c r="W45" s="352"/>
+      <c r="X45" s="353"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
       <c r="AA45" s="40"/>
@@ -12882,33 +12753,33 @@
       <c r="AH45" s="40"/>
       <c r="AI45" s="40"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
-      <c r="N46" s="334"/>
-      <c r="O46" s="337" t="s">
+      <c r="E46" s="349"/>
+      <c r="F46" s="350"/>
+      <c r="G46" s="350"/>
+      <c r="H46" s="350"/>
+      <c r="I46" s="350"/>
+      <c r="J46" s="350"/>
+      <c r="K46" s="350"/>
+      <c r="L46" s="350"/>
+      <c r="M46" s="350"/>
+      <c r="N46" s="351"/>
+      <c r="O46" s="354" t="s">
         <v>118</v>
       </c>
-      <c r="P46" s="338"/>
-      <c r="Q46" s="338"/>
-      <c r="R46" s="338"/>
-      <c r="S46" s="338"/>
-      <c r="T46" s="338"/>
-      <c r="U46" s="338"/>
-      <c r="V46" s="338"/>
-      <c r="W46" s="338"/>
-      <c r="X46" s="339"/>
+      <c r="P46" s="355"/>
+      <c r="Q46" s="355"/>
+      <c r="R46" s="355"/>
+      <c r="S46" s="355"/>
+      <c r="T46" s="355"/>
+      <c r="U46" s="355"/>
+      <c r="V46" s="355"/>
+      <c r="W46" s="355"/>
+      <c r="X46" s="356"/>
       <c r="Y46" s="40"/>
       <c r="Z46" s="40"/>
       <c r="AA46" s="40"/>
@@ -12921,33 +12792,33 @@
       <c r="AH46" s="40"/>
       <c r="AI46" s="40"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="293" t="s">
+      <c r="E47" s="366" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="294"/>
-      <c r="G47" s="294"/>
-      <c r="H47" s="294"/>
-      <c r="I47" s="294"/>
-      <c r="J47" s="294"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="294"/>
-      <c r="M47" s="294"/>
-      <c r="N47" s="294"/>
-      <c r="O47" s="294"/>
-      <c r="P47" s="294"/>
-      <c r="Q47" s="294"/>
-      <c r="R47" s="294"/>
-      <c r="S47" s="294"/>
-      <c r="T47" s="294"/>
-      <c r="U47" s="294"/>
-      <c r="V47" s="294"/>
-      <c r="W47" s="294"/>
-      <c r="X47" s="295"/>
+      <c r="F47" s="367"/>
+      <c r="G47" s="367"/>
+      <c r="H47" s="367"/>
+      <c r="I47" s="367"/>
+      <c r="J47" s="367"/>
+      <c r="K47" s="367"/>
+      <c r="L47" s="367"/>
+      <c r="M47" s="367"/>
+      <c r="N47" s="367"/>
+      <c r="O47" s="367"/>
+      <c r="P47" s="367"/>
+      <c r="Q47" s="367"/>
+      <c r="R47" s="367"/>
+      <c r="S47" s="367"/>
+      <c r="T47" s="367"/>
+      <c r="U47" s="367"/>
+      <c r="V47" s="367"/>
+      <c r="W47" s="367"/>
+      <c r="X47" s="368"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
       <c r="AA47" s="40"/>
@@ -12960,7 +12831,7 @@
       <c r="AH47" s="40"/>
       <c r="AI47" s="40"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -12997,7 +12868,7 @@
       <c r="AH48" s="40"/>
       <c r="AI48" s="40"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
@@ -13040,7 +12911,7 @@
       <c r="AH49" s="40"/>
       <c r="AI49" s="40"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -13077,7 +12948,7 @@
       <c r="AH50" s="40"/>
       <c r="AI50" s="40"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -13114,7 +12985,7 @@
       <c r="AH51" s="40"/>
       <c r="AI51" s="40"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -13131,85 +13002,85 @@
       <c r="AH52" s="40"/>
       <c r="AI52" s="40"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
-      <c r="E53" s="369" t="s">
+      <c r="E53" s="286" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="370"/>
-      <c r="G53" s="370"/>
-      <c r="H53" s="370"/>
-      <c r="I53" s="370"/>
-      <c r="J53" s="278" t="s">
+      <c r="F53" s="287"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="287"/>
+      <c r="I53" s="287"/>
+      <c r="J53" s="282" t="s">
         <v>111</v>
       </c>
-      <c r="K53" s="278"/>
-      <c r="L53" s="278"/>
-      <c r="M53" s="311" t="s">
+      <c r="K53" s="282"/>
+      <c r="L53" s="282"/>
+      <c r="M53" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="N53" s="312"/>
-      <c r="O53" s="312"/>
-      <c r="P53" s="312"/>
-      <c r="Q53" s="312"/>
-      <c r="R53" s="312"/>
-      <c r="S53" s="313"/>
-      <c r="T53" s="311" t="s">
+      <c r="N53" s="284"/>
+      <c r="O53" s="284"/>
+      <c r="P53" s="284"/>
+      <c r="Q53" s="284"/>
+      <c r="R53" s="284"/>
+      <c r="S53" s="285"/>
+      <c r="T53" s="283" t="s">
         <v>105</v>
       </c>
-      <c r="U53" s="312"/>
-      <c r="V53" s="312"/>
-      <c r="W53" s="312"/>
-      <c r="X53" s="312"/>
-      <c r="Y53" s="312"/>
-      <c r="Z53" s="312"/>
-      <c r="AA53" s="312"/>
-      <c r="AB53" s="312"/>
-      <c r="AC53" s="312"/>
-      <c r="AD53" s="313"/>
-    </row>
-    <row r="54" spans="1:35" ht="11.25" customHeight="1">
+      <c r="U53" s="284"/>
+      <c r="V53" s="284"/>
+      <c r="W53" s="284"/>
+      <c r="X53" s="284"/>
+      <c r="Y53" s="284"/>
+      <c r="Z53" s="284"/>
+      <c r="AA53" s="284"/>
+      <c r="AB53" s="284"/>
+      <c r="AC53" s="284"/>
+      <c r="AD53" s="285"/>
+    </row>
+    <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
-      <c r="E54" s="320" t="s">
+      <c r="E54" s="279" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="321"/>
-      <c r="G54" s="321"/>
-      <c r="H54" s="321"/>
-      <c r="I54" s="321"/>
-      <c r="J54" s="371" t="s">
+      <c r="F54" s="280"/>
+      <c r="G54" s="280"/>
+      <c r="H54" s="280"/>
+      <c r="I54" s="280"/>
+      <c r="J54" s="278" t="s">
         <v>125</v>
       </c>
-      <c r="K54" s="371"/>
-      <c r="L54" s="371"/>
-      <c r="M54" s="320" t="s">
+      <c r="K54" s="278"/>
+      <c r="L54" s="278"/>
+      <c r="M54" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="N54" s="321"/>
-      <c r="O54" s="321"/>
-      <c r="P54" s="321"/>
-      <c r="Q54" s="321"/>
-      <c r="R54" s="321"/>
-      <c r="S54" s="322"/>
-      <c r="T54" s="320" t="s">
+      <c r="N54" s="280"/>
+      <c r="O54" s="280"/>
+      <c r="P54" s="280"/>
+      <c r="Q54" s="280"/>
+      <c r="R54" s="280"/>
+      <c r="S54" s="281"/>
+      <c r="T54" s="279" t="s">
         <v>64</v>
       </c>
-      <c r="U54" s="321"/>
-      <c r="V54" s="321"/>
-      <c r="W54" s="321"/>
-      <c r="X54" s="321"/>
-      <c r="Y54" s="321"/>
-      <c r="Z54" s="321"/>
-      <c r="AA54" s="321"/>
-      <c r="AB54" s="321"/>
-      <c r="AC54" s="321"/>
-      <c r="AD54" s="322"/>
-    </row>
-    <row r="55" spans="1:35" ht="11.25" customHeight="1">
+      <c r="U54" s="280"/>
+      <c r="V54" s="280"/>
+      <c r="W54" s="280"/>
+      <c r="X54" s="280"/>
+      <c r="Y54" s="280"/>
+      <c r="Z54" s="280"/>
+      <c r="AA54" s="280"/>
+      <c r="AB54" s="280"/>
+      <c r="AC54" s="280"/>
+      <c r="AD54" s="281"/>
+    </row>
+    <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -13240,7 +13111,7 @@
       <c r="AC55" s="137"/>
       <c r="AD55" s="137"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="40"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
@@ -13279,7 +13150,7 @@
       <c r="AH56" s="40"/>
       <c r="AI56" s="40"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -13316,7 +13187,7 @@
       <c r="AH57" s="40"/>
       <c r="AI57" s="40"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="40"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
@@ -13355,7 +13226,7 @@
       <c r="AH58" s="40"/>
       <c r="AI58" s="40"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="40"/>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
@@ -13392,7 +13263,7 @@
       <c r="AH59" s="40"/>
       <c r="AI59" s="40"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="40"/>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -13429,7 +13300,7 @@
       <c r="AH60" s="40"/>
       <c r="AI60" s="40"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C61" s="80" t="s">
         <v>53</v>
       </c>
@@ -13463,7 +13334,7 @@
       <c r="AE61" s="80"/>
       <c r="AF61" s="80"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C62" s="80"/>
       <c r="D62" s="80" t="s">
         <v>129</v>
@@ -13497,7 +13368,7 @@
       <c r="AE62" s="80"/>
       <c r="AF62" s="80"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C63" s="80"/>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -13529,7 +13400,7 @@
       <c r="AE63" s="80"/>
       <c r="AF63" s="80"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C64" s="80"/>
       <c r="E64" s="51" t="s">
         <v>130</v>
@@ -13562,7 +13433,7 @@
       <c r="AE64" s="80"/>
       <c r="AF64" s="80"/>
     </row>
-    <row r="65" spans="3:34">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C65" s="80"/>
       <c r="D65" s="51"/>
       <c r="E65" s="51"/>
@@ -13594,49 +13465,49 @@
       <c r="AE65" s="80"/>
       <c r="AF65" s="80"/>
     </row>
-    <row r="66" spans="3:34">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="80"/>
       <c r="D66" s="80"/>
-      <c r="E66" s="343" t="s">
+      <c r="E66" s="310" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="343"/>
-      <c r="G66" s="355" t="s">
+      <c r="F66" s="310"/>
+      <c r="G66" s="294" t="s">
         <v>131</v>
       </c>
-      <c r="H66" s="356"/>
-      <c r="I66" s="356"/>
-      <c r="J66" s="356"/>
-      <c r="K66" s="356"/>
-      <c r="L66" s="357"/>
-      <c r="M66" s="343" t="s">
+      <c r="H66" s="295"/>
+      <c r="I66" s="295"/>
+      <c r="J66" s="295"/>
+      <c r="K66" s="295"/>
+      <c r="L66" s="296"/>
+      <c r="M66" s="310" t="s">
         <v>132</v>
       </c>
-      <c r="N66" s="343"/>
-      <c r="O66" s="355" t="s">
+      <c r="N66" s="310"/>
+      <c r="O66" s="294" t="s">
         <v>85</v>
       </c>
-      <c r="P66" s="356"/>
-      <c r="Q66" s="356"/>
-      <c r="R66" s="356"/>
-      <c r="S66" s="356"/>
-      <c r="T66" s="356"/>
-      <c r="U66" s="356"/>
-      <c r="V66" s="356"/>
-      <c r="W66" s="356"/>
-      <c r="X66" s="356"/>
-      <c r="Y66" s="356"/>
-      <c r="Z66" s="356"/>
-      <c r="AA66" s="356"/>
-      <c r="AB66" s="356"/>
-      <c r="AC66" s="356"/>
-      <c r="AD66" s="356"/>
-      <c r="AE66" s="356"/>
-      <c r="AF66" s="356"/>
-      <c r="AG66" s="356"/>
-      <c r="AH66" s="357"/>
-    </row>
-    <row r="67" spans="3:34">
+      <c r="P66" s="295"/>
+      <c r="Q66" s="295"/>
+      <c r="R66" s="295"/>
+      <c r="S66" s="295"/>
+      <c r="T66" s="295"/>
+      <c r="U66" s="295"/>
+      <c r="V66" s="295"/>
+      <c r="W66" s="295"/>
+      <c r="X66" s="295"/>
+      <c r="Y66" s="295"/>
+      <c r="Z66" s="295"/>
+      <c r="AA66" s="295"/>
+      <c r="AB66" s="295"/>
+      <c r="AC66" s="295"/>
+      <c r="AD66" s="295"/>
+      <c r="AE66" s="295"/>
+      <c r="AF66" s="295"/>
+      <c r="AG66" s="295"/>
+      <c r="AH66" s="296"/>
+    </row>
+    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
       <c r="E67" s="80"/>
@@ -13668,7 +13539,7 @@
       <c r="AE67" s="80"/>
       <c r="AF67" s="80"/>
     </row>
-    <row r="68" spans="3:34">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="80"/>
       <c r="D68" s="80"/>
       <c r="E68" s="80"/>
@@ -13700,7 +13571,7 @@
       <c r="AE68" s="80"/>
       <c r="AF68" s="80"/>
     </row>
-    <row r="69" spans="3:34">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="80"/>
       <c r="D69" s="80" t="s">
         <v>133</v>
@@ -13734,7 +13605,7 @@
       <c r="AE69" s="80"/>
       <c r="AF69" s="80"/>
     </row>
-    <row r="70" spans="3:34">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="80"/>
       <c r="D70" s="80"/>
       <c r="E70" s="80"/>
@@ -13766,310 +13637,377 @@
       <c r="AE70" s="80"/>
       <c r="AF70" s="80"/>
     </row>
-    <row r="71" spans="3:34">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C71" s="80"/>
       <c r="D71" s="80"/>
-      <c r="E71" s="344" t="s">
+      <c r="E71" s="320" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="302" t="s">
+      <c r="F71" s="314" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="303"/>
-      <c r="H71" s="303"/>
-      <c r="I71" s="304"/>
-      <c r="J71" s="302" t="s">
+      <c r="G71" s="315"/>
+      <c r="H71" s="315"/>
+      <c r="I71" s="316"/>
+      <c r="J71" s="314" t="s">
         <v>135</v>
       </c>
-      <c r="K71" s="303"/>
-      <c r="L71" s="303"/>
-      <c r="M71" s="304"/>
-      <c r="N71" s="346" t="s">
+      <c r="K71" s="315"/>
+      <c r="L71" s="315"/>
+      <c r="M71" s="316"/>
+      <c r="N71" s="322" t="s">
         <v>136</v>
       </c>
-      <c r="O71" s="346"/>
-      <c r="P71" s="346"/>
-      <c r="Q71" s="346"/>
-      <c r="R71" s="346"/>
-      <c r="S71" s="346"/>
-      <c r="T71" s="346"/>
-      <c r="U71" s="346"/>
-      <c r="V71" s="346"/>
-      <c r="W71" s="302" t="s">
+      <c r="O71" s="322"/>
+      <c r="P71" s="322"/>
+      <c r="Q71" s="322"/>
+      <c r="R71" s="322"/>
+      <c r="S71" s="322"/>
+      <c r="T71" s="322"/>
+      <c r="U71" s="322"/>
+      <c r="V71" s="322"/>
+      <c r="W71" s="314" t="s">
         <v>137</v>
       </c>
-      <c r="X71" s="303"/>
-      <c r="Y71" s="303"/>
-      <c r="Z71" s="303"/>
-      <c r="AA71" s="303"/>
-      <c r="AB71" s="303"/>
-      <c r="AC71" s="304"/>
-      <c r="AD71" s="302" t="s">
+      <c r="X71" s="315"/>
+      <c r="Y71" s="315"/>
+      <c r="Z71" s="315"/>
+      <c r="AA71" s="315"/>
+      <c r="AB71" s="315"/>
+      <c r="AC71" s="316"/>
+      <c r="AD71" s="314" t="s">
         <v>71</v>
       </c>
-      <c r="AE71" s="303"/>
-      <c r="AF71" s="303"/>
-      <c r="AG71" s="303"/>
-      <c r="AH71" s="304"/>
-    </row>
-    <row r="72" spans="3:34">
+      <c r="AE71" s="315"/>
+      <c r="AF71" s="315"/>
+      <c r="AG71" s="315"/>
+      <c r="AH71" s="316"/>
+    </row>
+    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C72" s="80"/>
       <c r="D72" s="51"/>
-      <c r="E72" s="345"/>
-      <c r="F72" s="305"/>
-      <c r="G72" s="306"/>
-      <c r="H72" s="306"/>
-      <c r="I72" s="307"/>
-      <c r="J72" s="305"/>
-      <c r="K72" s="306"/>
-      <c r="L72" s="306"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="346" t="s">
+      <c r="E72" s="321"/>
+      <c r="F72" s="317"/>
+      <c r="G72" s="318"/>
+      <c r="H72" s="318"/>
+      <c r="I72" s="319"/>
+      <c r="J72" s="317"/>
+      <c r="K72" s="318"/>
+      <c r="L72" s="318"/>
+      <c r="M72" s="319"/>
+      <c r="N72" s="322" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="346"/>
-      <c r="P72" s="346"/>
-      <c r="Q72" s="346"/>
-      <c r="R72" s="346"/>
-      <c r="S72" s="278" t="s">
+      <c r="O72" s="322"/>
+      <c r="P72" s="322"/>
+      <c r="Q72" s="322"/>
+      <c r="R72" s="322"/>
+      <c r="S72" s="282" t="s">
         <v>135</v>
       </c>
-      <c r="T72" s="278"/>
-      <c r="U72" s="278"/>
-      <c r="V72" s="278"/>
-      <c r="W72" s="305"/>
-      <c r="X72" s="306"/>
-      <c r="Y72" s="306"/>
-      <c r="Z72" s="306"/>
-      <c r="AA72" s="306"/>
-      <c r="AB72" s="306"/>
-      <c r="AC72" s="307"/>
-      <c r="AD72" s="305"/>
-      <c r="AE72" s="306"/>
-      <c r="AF72" s="306"/>
-      <c r="AG72" s="306"/>
-      <c r="AH72" s="307"/>
-    </row>
-    <row r="73" spans="3:34">
+      <c r="T72" s="282"/>
+      <c r="U72" s="282"/>
+      <c r="V72" s="282"/>
+      <c r="W72" s="317"/>
+      <c r="X72" s="318"/>
+      <c r="Y72" s="318"/>
+      <c r="Z72" s="318"/>
+      <c r="AA72" s="318"/>
+      <c r="AB72" s="318"/>
+      <c r="AC72" s="319"/>
+      <c r="AD72" s="317"/>
+      <c r="AE72" s="318"/>
+      <c r="AF72" s="318"/>
+      <c r="AG72" s="318"/>
+      <c r="AH72" s="319"/>
+    </row>
+    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C73" s="80"/>
       <c r="D73" s="51"/>
       <c r="E73" s="153">
         <v>1</v>
       </c>
-      <c r="F73" s="299" t="s">
+      <c r="F73" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="300"/>
-      <c r="H73" s="300"/>
-      <c r="I73" s="301"/>
-      <c r="J73" s="299" t="s">
+      <c r="G73" s="329"/>
+      <c r="H73" s="329"/>
+      <c r="I73" s="330"/>
+      <c r="J73" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="K73" s="300"/>
-      <c r="L73" s="300"/>
-      <c r="M73" s="301"/>
-      <c r="N73" s="290" t="s">
+      <c r="K73" s="329"/>
+      <c r="L73" s="329"/>
+      <c r="M73" s="330"/>
+      <c r="N73" s="326" t="s">
         <v>81</v>
       </c>
-      <c r="O73" s="291"/>
-      <c r="P73" s="291"/>
-      <c r="Q73" s="291"/>
-      <c r="R73" s="291"/>
-      <c r="S73" s="292" t="s">
+      <c r="O73" s="327"/>
+      <c r="P73" s="327"/>
+      <c r="Q73" s="327"/>
+      <c r="R73" s="327"/>
+      <c r="S73" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="T73" s="292"/>
-      <c r="U73" s="292"/>
-      <c r="V73" s="292"/>
-      <c r="W73" s="281"/>
-      <c r="X73" s="282"/>
-      <c r="Y73" s="282"/>
-      <c r="Z73" s="282"/>
-      <c r="AA73" s="282"/>
-      <c r="AB73" s="282"/>
-      <c r="AC73" s="283"/>
-      <c r="AD73" s="281"/>
-      <c r="AE73" s="282"/>
-      <c r="AF73" s="282"/>
-      <c r="AG73" s="282"/>
-      <c r="AH73" s="283"/>
-    </row>
-    <row r="74" spans="3:34">
+      <c r="T73" s="325"/>
+      <c r="U73" s="325"/>
+      <c r="V73" s="325"/>
+      <c r="W73" s="360"/>
+      <c r="X73" s="361"/>
+      <c r="Y73" s="361"/>
+      <c r="Z73" s="361"/>
+      <c r="AA73" s="361"/>
+      <c r="AB73" s="361"/>
+      <c r="AC73" s="362"/>
+      <c r="AD73" s="360"/>
+      <c r="AE73" s="361"/>
+      <c r="AF73" s="361"/>
+      <c r="AG73" s="361"/>
+      <c r="AH73" s="362"/>
+    </row>
+    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C74" s="80"/>
       <c r="D74" s="51"/>
       <c r="E74" s="153">
         <v>2</v>
       </c>
-      <c r="F74" s="299" t="s">
+      <c r="F74" s="328" t="s">
         <v>139</v>
       </c>
-      <c r="G74" s="300"/>
-      <c r="H74" s="300"/>
-      <c r="I74" s="301"/>
-      <c r="J74" s="299" t="s">
+      <c r="G74" s="329"/>
+      <c r="H74" s="329"/>
+      <c r="I74" s="330"/>
+      <c r="J74" s="328" t="s">
         <v>117</v>
       </c>
-      <c r="K74" s="300"/>
-      <c r="L74" s="300"/>
-      <c r="M74" s="301"/>
-      <c r="N74" s="290" t="s">
+      <c r="K74" s="329"/>
+      <c r="L74" s="329"/>
+      <c r="M74" s="330"/>
+      <c r="N74" s="326" t="s">
         <v>81</v>
       </c>
-      <c r="O74" s="291"/>
-      <c r="P74" s="291"/>
-      <c r="Q74" s="291"/>
-      <c r="R74" s="291"/>
-      <c r="S74" s="292" t="s">
+      <c r="O74" s="327"/>
+      <c r="P74" s="327"/>
+      <c r="Q74" s="327"/>
+      <c r="R74" s="327"/>
+      <c r="S74" s="325" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="292"/>
-      <c r="U74" s="292"/>
-      <c r="V74" s="292"/>
-      <c r="W74" s="281"/>
-      <c r="X74" s="282"/>
-      <c r="Y74" s="282"/>
-      <c r="Z74" s="282"/>
-      <c r="AA74" s="282"/>
-      <c r="AB74" s="282"/>
-      <c r="AC74" s="283"/>
-      <c r="AD74" s="281"/>
-      <c r="AE74" s="282"/>
-      <c r="AF74" s="282"/>
-      <c r="AG74" s="282"/>
-      <c r="AH74" s="283"/>
-    </row>
-    <row r="75" spans="3:34">
+      <c r="T74" s="325"/>
+      <c r="U74" s="325"/>
+      <c r="V74" s="325"/>
+      <c r="W74" s="360"/>
+      <c r="X74" s="361"/>
+      <c r="Y74" s="361"/>
+      <c r="Z74" s="361"/>
+      <c r="AA74" s="361"/>
+      <c r="AB74" s="361"/>
+      <c r="AC74" s="362"/>
+      <c r="AD74" s="360"/>
+      <c r="AE74" s="361"/>
+      <c r="AF74" s="361"/>
+      <c r="AG74" s="361"/>
+      <c r="AH74" s="362"/>
+    </row>
+    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C75" s="80"/>
       <c r="D75" s="51"/>
       <c r="E75" s="153">
         <v>3</v>
       </c>
-      <c r="F75" s="299" t="s">
+      <c r="F75" s="328" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="300"/>
-      <c r="H75" s="300"/>
-      <c r="I75" s="301"/>
-      <c r="J75" s="299" t="s">
+      <c r="G75" s="329"/>
+      <c r="H75" s="329"/>
+      <c r="I75" s="330"/>
+      <c r="J75" s="328" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="300"/>
-      <c r="L75" s="300"/>
-      <c r="M75" s="301"/>
-      <c r="N75" s="290" t="s">
+      <c r="K75" s="329"/>
+      <c r="L75" s="329"/>
+      <c r="M75" s="330"/>
+      <c r="N75" s="326" t="s">
         <v>81</v>
       </c>
-      <c r="O75" s="291"/>
-      <c r="P75" s="291"/>
-      <c r="Q75" s="291"/>
-      <c r="R75" s="291"/>
-      <c r="S75" s="292" t="s">
+      <c r="O75" s="327"/>
+      <c r="P75" s="327"/>
+      <c r="Q75" s="327"/>
+      <c r="R75" s="327"/>
+      <c r="S75" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="T75" s="292"/>
-      <c r="U75" s="292"/>
-      <c r="V75" s="292"/>
-      <c r="W75" s="281"/>
-      <c r="X75" s="282"/>
-      <c r="Y75" s="282"/>
-      <c r="Z75" s="282"/>
-      <c r="AA75" s="282"/>
-      <c r="AB75" s="282"/>
-      <c r="AC75" s="283"/>
-      <c r="AD75" s="281"/>
-      <c r="AE75" s="282"/>
-      <c r="AF75" s="282"/>
-      <c r="AG75" s="282"/>
-      <c r="AH75" s="283"/>
-    </row>
-    <row r="76" spans="3:34">
+      <c r="T75" s="325"/>
+      <c r="U75" s="325"/>
+      <c r="V75" s="325"/>
+      <c r="W75" s="360"/>
+      <c r="X75" s="361"/>
+      <c r="Y75" s="361"/>
+      <c r="Z75" s="361"/>
+      <c r="AA75" s="361"/>
+      <c r="AB75" s="361"/>
+      <c r="AC75" s="362"/>
+      <c r="AD75" s="360"/>
+      <c r="AE75" s="361"/>
+      <c r="AF75" s="361"/>
+      <c r="AG75" s="361"/>
+      <c r="AH75" s="362"/>
+    </row>
+    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C76" s="80"/>
       <c r="D76" s="51"/>
       <c r="E76" s="153">
         <v>4</v>
       </c>
-      <c r="F76" s="299"/>
-      <c r="G76" s="300"/>
-      <c r="H76" s="300"/>
-      <c r="I76" s="301"/>
-      <c r="J76" s="299"/>
-      <c r="K76" s="300"/>
-      <c r="L76" s="300"/>
-      <c r="M76" s="301"/>
-      <c r="N76" s="290"/>
-      <c r="O76" s="291"/>
-      <c r="P76" s="291"/>
-      <c r="Q76" s="291"/>
-      <c r="R76" s="291"/>
-      <c r="S76" s="292"/>
-      <c r="T76" s="292"/>
-      <c r="U76" s="292"/>
-      <c r="V76" s="292"/>
-      <c r="W76" s="281"/>
-      <c r="X76" s="282"/>
-      <c r="Y76" s="282"/>
-      <c r="Z76" s="282"/>
-      <c r="AA76" s="282"/>
-      <c r="AB76" s="282"/>
-      <c r="AC76" s="283"/>
-      <c r="AD76" s="281"/>
-      <c r="AE76" s="282"/>
-      <c r="AF76" s="282"/>
-      <c r="AG76" s="282"/>
-      <c r="AH76" s="283"/>
-    </row>
-    <row r="77" spans="3:34">
+      <c r="F76" s="328"/>
+      <c r="G76" s="329"/>
+      <c r="H76" s="329"/>
+      <c r="I76" s="330"/>
+      <c r="J76" s="328"/>
+      <c r="K76" s="329"/>
+      <c r="L76" s="329"/>
+      <c r="M76" s="330"/>
+      <c r="N76" s="326"/>
+      <c r="O76" s="327"/>
+      <c r="P76" s="327"/>
+      <c r="Q76" s="327"/>
+      <c r="R76" s="327"/>
+      <c r="S76" s="325"/>
+      <c r="T76" s="325"/>
+      <c r="U76" s="325"/>
+      <c r="V76" s="325"/>
+      <c r="W76" s="360"/>
+      <c r="X76" s="361"/>
+      <c r="Y76" s="361"/>
+      <c r="Z76" s="361"/>
+      <c r="AA76" s="361"/>
+      <c r="AB76" s="361"/>
+      <c r="AC76" s="362"/>
+      <c r="AD76" s="360"/>
+      <c r="AE76" s="361"/>
+      <c r="AF76" s="361"/>
+      <c r="AG76" s="361"/>
+      <c r="AH76" s="362"/>
+    </row>
+    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C77" s="80"/>
       <c r="D77" s="51"/>
       <c r="E77" s="153">
         <v>5</v>
       </c>
-      <c r="F77" s="299"/>
-      <c r="G77" s="300"/>
-      <c r="H77" s="300"/>
-      <c r="I77" s="301"/>
-      <c r="J77" s="299"/>
-      <c r="K77" s="300"/>
-      <c r="L77" s="300"/>
-      <c r="M77" s="301"/>
-      <c r="N77" s="290"/>
-      <c r="O77" s="291"/>
-      <c r="P77" s="291"/>
-      <c r="Q77" s="291"/>
-      <c r="R77" s="291"/>
-      <c r="S77" s="292"/>
-      <c r="T77" s="292"/>
-      <c r="U77" s="292"/>
-      <c r="V77" s="292"/>
-      <c r="W77" s="281"/>
-      <c r="X77" s="282"/>
-      <c r="Y77" s="282"/>
-      <c r="Z77" s="282"/>
-      <c r="AA77" s="282"/>
-      <c r="AB77" s="282"/>
-      <c r="AC77" s="283"/>
-      <c r="AD77" s="281"/>
-      <c r="AE77" s="282"/>
-      <c r="AF77" s="282"/>
-      <c r="AG77" s="282"/>
-      <c r="AH77" s="283"/>
+      <c r="F77" s="328"/>
+      <c r="G77" s="329"/>
+      <c r="H77" s="329"/>
+      <c r="I77" s="330"/>
+      <c r="J77" s="328"/>
+      <c r="K77" s="329"/>
+      <c r="L77" s="329"/>
+      <c r="M77" s="330"/>
+      <c r="N77" s="326"/>
+      <c r="O77" s="327"/>
+      <c r="P77" s="327"/>
+      <c r="Q77" s="327"/>
+      <c r="R77" s="327"/>
+      <c r="S77" s="325"/>
+      <c r="T77" s="325"/>
+      <c r="U77" s="325"/>
+      <c r="V77" s="325"/>
+      <c r="W77" s="360"/>
+      <c r="X77" s="361"/>
+      <c r="Y77" s="361"/>
+      <c r="Z77" s="361"/>
+      <c r="AA77" s="361"/>
+      <c r="AB77" s="361"/>
+      <c r="AC77" s="362"/>
+      <c r="AD77" s="360"/>
+      <c r="AE77" s="361"/>
+      <c r="AF77" s="361"/>
+      <c r="AG77" s="361"/>
+      <c r="AH77" s="362"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:S54"/>
-    <mergeCell ref="T54:AD54"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AD37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:S53"/>
-    <mergeCell ref="T53:AD53"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="AD77:AH77"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N77:R77"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="N76:R76"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="N75:R75"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="W75:AC75"/>
+    <mergeCell ref="W76:AC76"/>
+    <mergeCell ref="W77:AC77"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="E47:X47"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="W73:AC73"/>
+    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="W71:AC72"/>
+    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="E44:N46"/>
+    <mergeCell ref="O44:X44"/>
+    <mergeCell ref="O45:X45"/>
+    <mergeCell ref="O46:X46"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J71:M72"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="N71:V71"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
     <mergeCell ref="K8:N9"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="G66:L66"/>
@@ -14094,87 +14032,20 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E54:I54"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="N71:V71"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="N73:R73"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="W71:AC72"/>
-    <mergeCell ref="AD71:AH72"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="E44:N46"/>
-    <mergeCell ref="O44:X44"/>
-    <mergeCell ref="O45:X45"/>
-    <mergeCell ref="O46:X46"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J71:M72"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="N74:R74"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="AD77:AH77"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N77:R77"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="N76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="N75:R75"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="W75:AC75"/>
-    <mergeCell ref="W76:AC76"/>
-    <mergeCell ref="W77:AC77"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="E47:X47"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="W73:AC73"/>
-    <mergeCell ref="W74:AC74"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="T54:AD54"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AD37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AD38"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:S53"/>
+    <mergeCell ref="T53:AD53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -14210,43 +14081,43 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="96" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="155" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="156" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="156" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="156" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="156" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="156" t="s">
         <v>144</v>
       </c>
